--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GMTJ\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55DB994-E411-4BD5-AC7A-15E31A7451E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1BBFD9-F10E-432B-9EC7-282D452E5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="4260" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name(Info)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Open_Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>랜덤박스정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 상자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>랜덤박스 아이템 제공 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reward_Item_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +121,10 @@
   </si>
   <si>
     <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,15 +150,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -175,18 +158,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -215,24 +192,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,73 +542,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
     <col min="2" max="5" width="24" customWidth="1"/>
-    <col min="6" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>100001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1001</v>
+      </c>
+      <c r="D2">
+        <v>10001</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D3">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -643,44 +631,15 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>100002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1002</v>
-      </c>
-      <c r="D4">
-        <v>10002</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -689,452 +648,439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
     <col min="2" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1001001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1001</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+      <c r="E2">
+        <v>10001</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1001002</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1001001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
       <c r="C3">
         <v>1001</v>
       </c>
       <c r="D3">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="E3">
         <v>10001</v>
       </c>
       <c r="F3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1001002</v>
+        <v>1001003</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1001</v>
       </c>
       <c r="D4">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="E4">
         <v>10001</v>
       </c>
       <c r="F4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>1001003</v>
+        <v>1001004</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1001</v>
       </c>
       <c r="D5">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E5">
         <v>10001</v>
       </c>
       <c r="F5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1001004</v>
+        <v>1001005</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1001</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E6">
         <v>10001</v>
       </c>
       <c r="F6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>1001005</v>
+        <v>1001006</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1001</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E7">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="F7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>1001006</v>
+        <v>1001007</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>1001</v>
       </c>
       <c r="D8">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E8">
         <v>10002</v>
       </c>
       <c r="F8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>1001007</v>
+        <v>1001008</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>1001</v>
       </c>
       <c r="D9">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E9">
         <v>10002</v>
       </c>
       <c r="F9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>1001008</v>
+        <v>1001009</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>1001</v>
       </c>
       <c r="D10">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>10002</v>
       </c>
       <c r="F10">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1001009</v>
+        <v>1001010</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1001</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>10002</v>
       </c>
       <c r="F11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>1001010</v>
+        <v>1002001</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="E12">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="F12">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1002001</v>
+        <v>1002002</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1002</v>
       </c>
       <c r="D13">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="E13">
         <v>10001</v>
       </c>
       <c r="F13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>1002002</v>
+        <v>1002003</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1002</v>
       </c>
       <c r="D14">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="E14">
         <v>10001</v>
       </c>
       <c r="F14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1002003</v>
+        <v>1002004</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>1002</v>
       </c>
       <c r="D15">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E15">
         <v>10001</v>
       </c>
       <c r="F15">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>1002004</v>
+        <v>1002005</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1002</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E16">
         <v>10001</v>
       </c>
       <c r="F16">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1002005</v>
+        <v>1002006</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1002</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E17">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="F17">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1002006</v>
+        <v>1002007</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>1002</v>
       </c>
       <c r="D18">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E18">
         <v>10002</v>
       </c>
       <c r="F18">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1002007</v>
+        <v>1002008</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>1002</v>
       </c>
       <c r="D19">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E19">
         <v>10002</v>
       </c>
       <c r="F19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1002008</v>
+        <v>1002009</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>1002</v>
       </c>
       <c r="D20">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>10002</v>
       </c>
       <c r="F20">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1002009</v>
+        <v>1002010</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>1002</v>
       </c>
       <c r="D21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>10002</v>
       </c>
       <c r="F21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1002010</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>1002</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22">
-        <v>10002</v>
-      </c>
-      <c r="F22">
         <v>2500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1142,12 +1088,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -1305,6 +1245,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1315,22 +1261,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1348,6 +1278,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>

--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1BBFD9-F10E-432B-9EC7-282D452E5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E975B3B6-8734-4B71-8C6F-539D26EBC8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-23310" yWindow="1965" windowWidth="22680" windowHeight="11295" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NameInfo</t>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,19 +544,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="5" width="24" customWidth="1"/>
-    <col min="6" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -608,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -634,7 +634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -650,17 +650,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001001</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001002</v>
       </c>
@@ -720,7 +720,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001003</v>
       </c>
@@ -740,7 +740,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1001004</v>
       </c>
@@ -760,7 +760,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1001005</v>
       </c>
@@ -780,7 +780,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1001006</v>
       </c>
@@ -800,7 +800,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1001007</v>
       </c>
@@ -820,7 +820,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1001008</v>
       </c>
@@ -840,7 +840,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1001009</v>
       </c>
@@ -860,7 +860,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1001010</v>
       </c>
@@ -880,7 +880,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1002001</v>
       </c>
@@ -900,7 +900,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1002002</v>
       </c>
@@ -920,7 +920,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1002003</v>
       </c>
@@ -940,7 +940,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1002004</v>
       </c>
@@ -960,7 +960,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1002005</v>
       </c>
@@ -980,7 +980,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1002006</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1002007</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1002008</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1002009</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1002010</v>
       </c>
@@ -1088,6 +1088,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -1245,12 +1251,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1261,6 +1261,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1278,22 +1294,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>

--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1BBFD9-F10E-432B-9EC7-282D452E5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167B79CB-8BF3-4005-AD90-D93F0378B649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>100001</v>
+        <v>100011</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>100002</v>
+        <v>100012</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1088,6 +1088,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -1245,35 +1260,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1295,9 +1285,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E975B3B6-8734-4B71-8C6F-539D26EBC8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B9A1C8-C70A-420E-A7EB-F2F9278B7F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23310" yWindow="1965" windowWidth="22680" windowHeight="11295" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="14980" windowHeight="15370" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={900EBAE7-FA83-4C9D-95AE-AEA38F8BCB92}</author>
+    <author>tc={E3C5F8C5-CFD7-4E34-BC27-E9971205B78C}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{900EBAE7-FA83-4C9D-95AE-AEA38F8BCB92}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    상자종류</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{E3C5F8C5-CFD7-4E34-BC27-E9971205B78C}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    확률 10000 으로 설정</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,48 +110,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다이아 확률 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드 확률 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드 확률 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드 확률 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드 확률 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드  확률 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이아 확률 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이아 확률 3</t>
-  </si>
-  <si>
-    <t>다이아 확률 4</t>
-  </si>
-  <si>
-    <t>다이아 확률 5</t>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀색 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래색 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마멀레이드색 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라운색 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크림색 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초콜렛색 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘리코색 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정색 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턱시도 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간안경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽은 물고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">골드 확률 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고급상자 티켓 확률 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뭇가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람개비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이킹 모자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵가방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후라이팬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +230,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -192,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,9 +283,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -223,6 +300,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="경천 강" id="{DEFDF8BA-08CC-4ECF-8F60-F1EEA043FDC6}" userId="9a4f2fb646cdd437" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,28 +623,38 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2024-10-04T05:16:23.08" personId="{DEFDF8BA-08CC-4ECF-8F60-F1EEA043FDC6}" id="{900EBAE7-FA83-4C9D-95AE-AEA38F8BCB92}">
+    <text>상자종류</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2024-10-04T05:16:33.96" personId="{DEFDF8BA-08CC-4ECF-8F60-F1EEA043FDC6}" id="{E3C5F8C5-CFD7-4E34-BC27-E9971205B78C}">
+    <text>확률 10000 으로 설정</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
     <col min="2" max="5" width="24" customWidth="1"/>
-    <col min="6" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -578,13 +671,10 @@
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>100001</v>
+        <v>100011</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -593,7 +683,7 @@
         <v>1001</v>
       </c>
       <c r="D2">
-        <v>10001</v>
+        <v>100001</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -604,13 +694,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>100002</v>
+        <v>100012</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -619,7 +706,7 @@
         <v>1002</v>
       </c>
       <c r="D3">
-        <v>10002</v>
+        <v>100003</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -630,14 +717,29 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>100013</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1003</v>
+      </c>
+      <c r="D4">
+        <v>100002</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -647,25 +749,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
     <col min="2" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -680,12 +782,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1001001</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1001</v>
@@ -694,18 +796,18 @@
         <v>5000</v>
       </c>
       <c r="E2">
-        <v>10001</v>
+        <v>100001</v>
       </c>
       <c r="F2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001002</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>1001</v>
@@ -714,58 +816,58 @@
         <v>4000</v>
       </c>
       <c r="E3">
-        <v>10001</v>
+        <v>100003</v>
       </c>
       <c r="F3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001003</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>1001</v>
       </c>
       <c r="D4">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="E4">
-        <v>10001</v>
+        <v>201001</v>
       </c>
       <c r="F4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1001004</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1001</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E5">
-        <v>10001</v>
+        <v>201002</v>
       </c>
       <c r="F5">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1001005</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1001</v>
@@ -774,33 +876,33 @@
         <v>1000</v>
       </c>
       <c r="E6">
-        <v>10001</v>
+        <v>201003</v>
       </c>
       <c r="F6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1001006</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>1001</v>
       </c>
       <c r="D7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E7">
-        <v>10002</v>
+        <v>201004</v>
       </c>
       <c r="F7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1001007</v>
       </c>
@@ -811,16 +913,16 @@
         <v>1001</v>
       </c>
       <c r="D8">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E8">
-        <v>10002</v>
+        <v>201005</v>
       </c>
       <c r="F8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1001008</v>
       </c>
@@ -831,16 +933,16 @@
         <v>1001</v>
       </c>
       <c r="D9">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E9">
-        <v>10002</v>
+        <v>201006</v>
       </c>
       <c r="F9">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1001009</v>
       </c>
@@ -851,16 +953,16 @@
         <v>1001</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E10">
-        <v>10002</v>
+        <v>201007</v>
       </c>
       <c r="F10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1001010</v>
       </c>
@@ -871,229 +973,419 @@
         <v>1001</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E11">
-        <v>10002</v>
+        <v>201008</v>
       </c>
       <c r="F11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
+        <v>1001011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1001</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>201009</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1001012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1001</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>201010</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1001013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1001</v>
+      </c>
+      <c r="D14">
+        <v>300</v>
+      </c>
+      <c r="E14">
+        <v>322001</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1001014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1001</v>
+      </c>
+      <c r="D15">
+        <v>300</v>
+      </c>
+      <c r="E15">
+        <v>331001</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1001015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1001</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
+      </c>
+      <c r="E16">
+        <v>331002</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1001016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1001</v>
+      </c>
+      <c r="D17">
+        <v>300</v>
+      </c>
+      <c r="E17">
+        <v>331003</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>1002001</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1002</v>
-      </c>
-      <c r="D12">
-        <v>5000</v>
-      </c>
-      <c r="E12">
-        <v>10001</v>
-      </c>
-      <c r="F12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1002002</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>1002</v>
-      </c>
-      <c r="D13">
-        <v>4000</v>
-      </c>
-      <c r="E13">
-        <v>10001</v>
-      </c>
-      <c r="F13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1002003</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>1002</v>
-      </c>
-      <c r="D14">
-        <v>3000</v>
-      </c>
-      <c r="E14">
-        <v>10001</v>
-      </c>
-      <c r="F14">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1002004</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>1002</v>
-      </c>
-      <c r="D15">
-        <v>2000</v>
-      </c>
-      <c r="E15">
-        <v>10001</v>
-      </c>
-      <c r="F15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1002005</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>1002</v>
-      </c>
-      <c r="D16">
-        <v>1000</v>
-      </c>
-      <c r="E16">
-        <v>10001</v>
-      </c>
-      <c r="F16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1002006</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>1002</v>
-      </c>
-      <c r="D17">
-        <v>500</v>
-      </c>
-      <c r="E17">
-        <v>10002</v>
-      </c>
-      <c r="F17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1002007</v>
-      </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>1002</v>
       </c>
       <c r="D18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="E18">
-        <v>10002</v>
+        <v>100001</v>
       </c>
       <c r="F18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1002008</v>
+        <v>1002002</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>1002</v>
       </c>
       <c r="D19">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="E19">
-        <v>10002</v>
+        <v>100003</v>
       </c>
       <c r="F19">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1002009</v>
+        <v>1002003</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>1002</v>
       </c>
       <c r="D20">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="E20">
-        <v>10002</v>
+        <v>322001</v>
       </c>
       <c r="F20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1002010</v>
+        <v>1002004</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>1002</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="E21">
-        <v>10002</v>
+        <v>331001</v>
       </c>
       <c r="F21">
-        <v>2500</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1002005</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1002</v>
+      </c>
+      <c r="D22">
+        <v>3000</v>
+      </c>
+      <c r="E22">
+        <v>331002</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1002006</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>1002</v>
+      </c>
+      <c r="D23">
+        <v>3000</v>
+      </c>
+      <c r="E23">
+        <v>331003</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1002007</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1002</v>
+      </c>
+      <c r="D24">
+        <v>3000</v>
+      </c>
+      <c r="E24">
+        <v>332001</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>1002008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>1002</v>
+      </c>
+      <c r="D25">
+        <v>3000</v>
+      </c>
+      <c r="E25">
+        <v>332002</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1002009</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>1002</v>
+      </c>
+      <c r="D26">
+        <v>3000</v>
+      </c>
+      <c r="E26">
+        <v>332003</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>1002010</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>1002</v>
+      </c>
+      <c r="D27">
+        <v>3000</v>
+      </c>
+      <c r="E27">
+        <v>313001</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>1002011</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>1002</v>
+      </c>
+      <c r="D28">
+        <v>3000</v>
+      </c>
+      <c r="E28">
+        <v>333001</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>1003001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1003</v>
+      </c>
+      <c r="D29">
+        <v>5000</v>
+      </c>
+      <c r="E29">
+        <v>313001</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1003002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>1003</v>
+      </c>
+      <c r="D30">
+        <v>5000</v>
+      </c>
+      <c r="E30">
+        <v>333001</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -1251,32 +1543,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1292,12 +1583,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\fix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B9A1C8-C70A-420E-A7EB-F2F9278B7F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FD21BF-BB9F-4FEB-9BC3-C164139EDE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="14980" windowHeight="15370" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,24 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={24C381FC-5ADD-4E23-8CF8-0EB0DC782001}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{24C381FC-5ADD-4E23-8CF8-0EB0DC782001}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    가챠 종류</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={900EBAE7-FA83-4C9D-95AE-AEA38F8BCB92}</author>
@@ -64,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,26 +96,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gacha_Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고급상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pay_Item_Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pay_Item_Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reward_Item_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다이아 상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하얀색 스킨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,10 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">고급상자 티켓 확률 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나뭇가지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +193,38 @@
   </si>
   <si>
     <t>후라이팬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥냥가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울트라 냥냥가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay_Item1_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay_Item1_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay_Item2_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay_Item2_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">냥냥가챠 뽑기권 확률 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">울트라 냥냥가챠 뽑기권 확률 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +264,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +283,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -272,17 +304,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -305,6 +346,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="경천 강" id="{DEFDF8BA-08CC-4ECF-8F60-F1EEA043FDC6}" userId="9a4f2fb646cdd437" providerId="Windows Live"/>
+  <person displayName="창민 이" id="{C63CAAFE-5126-48D0-AB92-6D66926E1E10}" userId="fda0e400ac064334" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -625,6 +667,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2024-11-07T06:07:01.26" personId="{C63CAAFE-5126-48D0-AB92-6D66926E1E10}" id="{24C381FC-5ADD-4E23-8CF8-0EB0DC782001}">
+    <text>가챠 종류</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C1" dT="2024-10-04T05:16:23.08" personId="{DEFDF8BA-08CC-4ECF-8F60-F1EEA043FDC6}" id="{900EBAE7-FA83-4C9D-95AE-AEA38F8BCB92}">
     <text>상자종류</text>
   </threadedComment>
@@ -635,159 +685,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
-    <col min="2" max="5" width="24" customWidth="1"/>
-    <col min="6" max="7" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
         <v>100011</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1001</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="2">
         <v>100001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1000</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="F2" s="2">
+        <v>100004</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45292</v>
+      </c>
+      <c r="I2" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <v>100012</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2">
         <v>1002</v>
       </c>
-      <c r="D3">
-        <v>100003</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2">
+        <v>100002</v>
+      </c>
+      <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>100013</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1003</v>
-      </c>
-      <c r="D4">
-        <v>100002</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="F3" s="2">
+        <v>100005</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45292</v>
+      </c>
+      <c r="I3" s="4">
+        <v>73050</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
-    <col min="2" max="6" width="24" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" customWidth="1"/>
+    <col min="3" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1001001</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1001</v>
@@ -802,32 +851,32 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001002</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>1001</v>
       </c>
       <c r="D3">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="E3">
-        <v>100003</v>
+        <v>100004</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1001003</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1001</v>
@@ -842,12 +891,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1001004</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1001</v>
@@ -862,12 +911,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1001005</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1001</v>
@@ -882,12 +931,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1001006</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1001</v>
@@ -902,12 +951,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1001007</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1001</v>
@@ -922,12 +971,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1001008</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1001</v>
@@ -942,12 +991,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1001009</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1001</v>
@@ -962,12 +1011,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1001010</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1001</v>
@@ -982,12 +1031,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1001011</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>1001</v>
@@ -1002,12 +1051,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1001012</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>1001</v>
@@ -1022,12 +1071,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1001013</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>1001</v>
@@ -1042,12 +1091,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1001014</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>1001</v>
@@ -1062,12 +1111,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1001015</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>1001</v>
@@ -1082,12 +1131,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1001016</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>1001</v>
@@ -1102,263 +1151,223 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
         <v>1002001</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>100001</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>1002002</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E19" s="5">
+        <v>100005</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>1002003</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="5">
+        <v>322001</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>1002004</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>331001</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <v>1002005</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="5">
+        <v>331002</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <v>1002006</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>331003</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <v>1002007</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18">
+      <c r="C24" s="5">
         <v>1002</v>
       </c>
-      <c r="D18">
+      <c r="D24" s="5">
         <v>3000</v>
       </c>
-      <c r="E18">
-        <v>100001</v>
-      </c>
-      <c r="F18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1002002</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
+      <c r="E24" s="5">
+        <v>332001</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
+        <v>1002008</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5">
         <v>1002</v>
       </c>
-      <c r="D19">
+      <c r="D25" s="5">
         <v>3000</v>
       </c>
-      <c r="E19">
-        <v>100003</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>1002003</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
+      <c r="E25" s="5">
+        <v>332002</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
+        <v>1002009</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5">
         <v>1002</v>
       </c>
-      <c r="D20">
+      <c r="D26" s="5">
         <v>3000</v>
       </c>
-      <c r="E20">
-        <v>322001</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>1002004</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
+      <c r="E26" s="5">
+        <v>332003</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
+        <v>1002010</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5">
         <v>1002</v>
       </c>
-      <c r="D21">
+      <c r="D27" s="5">
         <v>3000</v>
       </c>
-      <c r="E21">
-        <v>331001</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>1002005</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22">
+      <c r="E27" s="5">
+        <v>313001</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
+        <v>1002011</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5">
         <v>1002</v>
       </c>
-      <c r="D22">
+      <c r="D28" s="5">
         <v>3000</v>
       </c>
-      <c r="E22">
-        <v>331002</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>1002006</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>1002</v>
-      </c>
-      <c r="D23">
-        <v>3000</v>
-      </c>
-      <c r="E23">
-        <v>331003</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>1002007</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24">
-        <v>1002</v>
-      </c>
-      <c r="D24">
-        <v>3000</v>
-      </c>
-      <c r="E24">
-        <v>332001</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>1002008</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25">
-        <v>1002</v>
-      </c>
-      <c r="D25">
-        <v>3000</v>
-      </c>
-      <c r="E25">
-        <v>332002</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>1002009</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>1002</v>
-      </c>
-      <c r="D26">
-        <v>3000</v>
-      </c>
-      <c r="E26">
-        <v>332003</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>1002010</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>1002</v>
-      </c>
-      <c r="D27">
-        <v>3000</v>
-      </c>
-      <c r="E27">
-        <v>313001</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>1002011</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28">
-        <v>1002</v>
-      </c>
-      <c r="D28">
-        <v>3000</v>
-      </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>333001</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>1003001</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29">
-        <v>1003</v>
-      </c>
-      <c r="D29">
-        <v>5000</v>
-      </c>
-      <c r="E29">
-        <v>313001</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>1003002</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>1003</v>
-      </c>
-      <c r="D30">
-        <v>5000</v>
-      </c>
-      <c r="E30">
-        <v>333001</v>
-      </c>
-      <c r="F30">
+      <c r="F28" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\OneDrive\바탕 화면\아웃게임 기획 정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FD21BF-BB9F-4FEB-9BC3-C164139EDE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E7051A-B389-424B-B9EA-875F1F08E314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="3585" yWindow="990" windowWidth="15525" windowHeight="14505" activeTab="2" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
     <sheet name="GachaGroup_Item" sheetId="5" r:id="rId2"/>
+    <sheet name="When_Dup" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,8 +82,28 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={262C3525-30B3-4A0E-9280-CCBF27DD5D25}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{262C3525-30B3-4A0E-9280-CCBF27DD5D25}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Normal = 1
+Rare = 2
+Unique = 3</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +246,14 @@
   </si>
   <si>
     <t xml:space="preserve">울트라 냥냥가챠 뽑기권 확률 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquired_Mileage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,6 +713,16 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2024-09-25T11:40:49.07" personId="{DEFDF8BA-08CC-4ECF-8F60-F1EEA043FDC6}" id="{262C3525-30B3-4A0E-9280-CCBF27DD5D25}">
+    <text>Normal = 1
+Rare = 2
+Unique = 3</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
   <dimension ref="A1:I3"/>
@@ -692,16 +731,16 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.69921875" customWidth="1"/>
+    <col min="4" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>100011</v>
       </c>
@@ -759,7 +798,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>100012</v>
       </c>
@@ -800,18 +839,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001001</v>
       </c>
@@ -851,7 +890,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001002</v>
       </c>
@@ -871,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001003</v>
       </c>
@@ -891,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1001004</v>
       </c>
@@ -911,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1001005</v>
       </c>
@@ -931,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1001006</v>
       </c>
@@ -951,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1001007</v>
       </c>
@@ -971,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1001008</v>
       </c>
@@ -991,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1001009</v>
       </c>
@@ -1011,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1001010</v>
       </c>
@@ -1031,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1001011</v>
       </c>
@@ -1051,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1001012</v>
       </c>
@@ -1071,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1001013</v>
       </c>
@@ -1091,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1001014</v>
       </c>
@@ -1111,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1001015</v>
       </c>
@@ -1131,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1001016</v>
       </c>
@@ -1151,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>1002001</v>
       </c>
@@ -1171,7 +1210,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>1002002</v>
       </c>
@@ -1191,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>1002003</v>
       </c>
@@ -1211,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>1002004</v>
       </c>
@@ -1231,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>1002005</v>
       </c>
@@ -1251,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1002006</v>
       </c>
@@ -1271,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>1002007</v>
       </c>
@@ -1291,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>1002008</v>
       </c>
@@ -1311,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>1002009</v>
       </c>
@@ -1331,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>1002010</v>
       </c>
@@ -1351,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>1002011</v>
       </c>
@@ -1379,22 +1418,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC866BF9-E829-4339-BA0A-DDA95ECAF929}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -1552,31 +1629,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1592,4 +1660,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\OneDrive\바탕 화면\아웃게임 기획 정리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E7051A-B389-424B-B9EA-875F1F08E314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A6C089-9BB1-4EBD-871A-5972EE85449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="990" windowWidth="15525" windowHeight="14505" activeTab="2" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="16755" yWindow="2160" windowWidth="11925" windowHeight="12855" firstSheet="1" activeTab="2" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,9 @@
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
-    확률 10000 으로 설정</t>
+    확률 10000 으로 설정
+답글:
+    단일 상품 / 뽑기 그룹 내 출현가능 아이템 전체 총합 * 100 확률로 아이템 출현</t>
       </text>
     </comment>
   </commentList>
@@ -103,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +256,10 @@
   </si>
   <si>
     <t>Acquired_Mileage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울트라충무공레전더리 냥냥가챠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,12 +291,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -710,6 +710,9 @@
   <threadedComment ref="D1" dT="2024-10-04T05:16:33.96" personId="{DEFDF8BA-08CC-4ECF-8F60-F1EEA043FDC6}" id="{E3C5F8C5-CFD7-4E34-BC27-E9971205B78C}">
     <text>확률 10000 으로 설정</text>
   </threadedComment>
+  <threadedComment ref="D1" dT="2024-11-26T07:06:41.56" personId="{C63CAAFE-5126-48D0-AB92-6D66926E1E10}" id="{A6681186-AF83-4175-8A1A-92EAC75B561C}" parentId="{E3C5F8C5-CFD7-4E34-BC27-E9971205B78C}">
+    <text>단일 상품 / 뽑기 그룹 내 출현가능 아이템 전체 총합 * 100 확률로 아이템 출현</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -725,16 +728,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="16.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15.75" customWidth="1"/>
@@ -786,10 +789,10 @@
         <v>1000</v>
       </c>
       <c r="F2" s="2">
-        <v>100004</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
         <v>45292</v>
@@ -815,10 +818,10 @@
         <v>100</v>
       </c>
       <c r="F3" s="2">
-        <v>100005</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <v>45292</v>
@@ -826,6 +829,288 @@
       <c r="I3" s="4">
         <v>73050</v>
       </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>100013</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45292</v>
+      </c>
+      <c r="I4" s="4">
+        <v>73050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -837,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1407,6 +1692,386 @@
         <v>333001</v>
       </c>
       <c r="F28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1003001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>1003</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>201001</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1003002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>1003</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>201002</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1003003</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>1003</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>201003</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1003004</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>1003</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>201004</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1003005</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>1003</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>201005</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1003006</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>1003</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>201006</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1003007</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>1003</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>201007</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1003008</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>1003</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>201008</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1003009</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>1003</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>201009</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1003010</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>1003</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>201010</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1003011</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>1003</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>313001</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1003012</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>1003</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>322001</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1003013</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>1003</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>333001</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1003014</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>1003</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>332001</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1003015</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>1003</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>332002</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1003016</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>1003</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>332003</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1003017</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>1003</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>331001</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1003018</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>1003</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>331002</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1003019</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>1003</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>331003</v>
+      </c>
+      <c r="F47">
         <v>1</v>
       </c>
     </row>
@@ -1423,7 +2088,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1630,18 +2295,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1663,6 +2328,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1676,12 +2349,4 @@
     <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A6C089-9BB1-4EBD-871A-5972EE85449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118C14E1-2E7E-4F3C-8627-F17E396D95B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16755" yWindow="2160" windowWidth="11925" windowHeight="12855" firstSheet="1" activeTab="2" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="10980" yWindow="1200" windowWidth="17670" windowHeight="13110" firstSheet="1" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,114 @@
   </si>
   <si>
     <t>울트라충무공레전더리 냥냥가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화난 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화난 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픈 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픈 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬픈 표정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃는 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃는 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃는 표정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당황 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당황 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큰둥 표정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큰둥 표정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큰둥 표정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀리는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고픈 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑에 빠진 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열정가득 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비웃는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀란 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각하는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윙크하는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫핫 썬글라스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1166,7 +1274,7 @@
         <v>1001</v>
       </c>
       <c r="D2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="E2">
         <v>100001</v>
@@ -1476,602 +1584,1442 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18">
+        <v>1001017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>1001</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>341002</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1001018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>1001</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>341003</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1001019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>1001</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>341004</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1001020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>1001</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>341005</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1001021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>1001</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>341006</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1001022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>1001</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>341007</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1001023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>1001</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>341008</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1001024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>1001</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>341009</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1001025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>1001</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>341010</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1001026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>1001</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+      <c r="E27">
+        <v>341011</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1001027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>1001</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
+        <v>341012</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>1002001</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C29" s="5">
         <v>1002</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D29" s="5">
         <v>3000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E29" s="5">
         <v>100001</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F29" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>1002002</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C30" s="5">
         <v>1002</v>
       </c>
-      <c r="D19" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D30" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="5">
         <v>100005</v>
       </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>1002003</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C31" s="5">
         <v>1002</v>
       </c>
-      <c r="D20" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D31" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="5">
         <v>322001</v>
       </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>1002004</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C32" s="5">
         <v>1002</v>
       </c>
-      <c r="D21" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="5">
         <v>331001</v>
       </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>1002005</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C33" s="5">
         <v>1002</v>
       </c>
-      <c r="D22" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="5">
         <v>331002</v>
       </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>1002006</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C34" s="5">
         <v>1002</v>
       </c>
-      <c r="D23" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D34" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="5">
         <v>331003</v>
       </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>1002007</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C35" s="5">
         <v>1002</v>
       </c>
-      <c r="D24" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D35" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="5">
         <v>332001</v>
       </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>1002008</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C36" s="5">
         <v>1002</v>
       </c>
-      <c r="D25" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D36" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="5">
         <v>332002</v>
       </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>1002009</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C37" s="5">
         <v>1002</v>
       </c>
-      <c r="D26" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="D37" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="5">
         <v>332003</v>
       </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>1002010</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C38" s="5">
         <v>1002</v>
       </c>
-      <c r="D27" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="D38" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E38" s="5">
         <v>313001</v>
       </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>1002011</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C39" s="5">
         <v>1002</v>
       </c>
-      <c r="D28" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="D39" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="5">
         <v>333001</v>
       </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>1002012</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="5">
+        <v>341013</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>1002013</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="5">
+        <v>341014</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>1002014</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="5">
+        <v>341015</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>1002015</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="5">
+        <v>341016</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>1002016</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>341017</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>1002017</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="5">
+        <v>341018</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>1002018</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="5">
+        <v>341019</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>1002019</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="5">
+        <v>341020</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>1002020</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="5">
+        <v>341021</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>1002021</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="5">
+        <v>341022</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>1002022</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E50" s="5">
+        <v>341023</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>1002023</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E51" s="5">
+        <v>341024</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>1002024</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="5">
+        <v>341025</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>1002025</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>341026</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>1002026</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>341027</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>1002027</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D55" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E55" s="5">
+        <v>322002</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>1003001</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C29">
-        <v>1003</v>
-      </c>
-      <c r="D29">
+      <c r="C56">
+        <v>1003</v>
+      </c>
+      <c r="D56">
         <v>100</v>
       </c>
-      <c r="E29">
+      <c r="E56">
         <v>201001</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>1003002</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
-        <v>1003</v>
-      </c>
-      <c r="D30">
+      <c r="C57">
+        <v>1003</v>
+      </c>
+      <c r="D57">
         <v>100</v>
       </c>
-      <c r="E30">
+      <c r="E57">
         <v>201002</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>1003003</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C31">
-        <v>1003</v>
-      </c>
-      <c r="D31">
+      <c r="C58">
+        <v>1003</v>
+      </c>
+      <c r="D58">
         <v>100</v>
       </c>
-      <c r="E31">
+      <c r="E58">
         <v>201003</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>1003004</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="C32">
-        <v>1003</v>
-      </c>
-      <c r="D32">
+      <c r="C59">
+        <v>1003</v>
+      </c>
+      <c r="D59">
         <v>100</v>
       </c>
-      <c r="E32">
+      <c r="E59">
         <v>201004</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>1003005</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B60" t="s">
         <v>12</v>
       </c>
-      <c r="C33">
-        <v>1003</v>
-      </c>
-      <c r="D33">
+      <c r="C60">
+        <v>1003</v>
+      </c>
+      <c r="D60">
         <v>100</v>
       </c>
-      <c r="E33">
+      <c r="E60">
         <v>201005</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>1003006</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B61" t="s">
         <v>13</v>
       </c>
-      <c r="C34">
-        <v>1003</v>
-      </c>
-      <c r="D34">
+      <c r="C61">
+        <v>1003</v>
+      </c>
+      <c r="D61">
         <v>100</v>
       </c>
-      <c r="E34">
+      <c r="E61">
         <v>201006</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>1003007</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C35">
-        <v>1003</v>
-      </c>
-      <c r="D35">
+      <c r="C62">
+        <v>1003</v>
+      </c>
+      <c r="D62">
         <v>100</v>
       </c>
-      <c r="E35">
+      <c r="E62">
         <v>201007</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>1003008</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B63" t="s">
         <v>15</v>
       </c>
-      <c r="C36">
-        <v>1003</v>
-      </c>
-      <c r="D36">
+      <c r="C63">
+        <v>1003</v>
+      </c>
+      <c r="D63">
         <v>100</v>
       </c>
-      <c r="E36">
+      <c r="E63">
         <v>201008</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>1003009</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B64" t="s">
         <v>16</v>
       </c>
-      <c r="C37">
-        <v>1003</v>
-      </c>
-      <c r="D37">
+      <c r="C64">
+        <v>1003</v>
+      </c>
+      <c r="D64">
         <v>100</v>
       </c>
-      <c r="E37">
+      <c r="E64">
         <v>201009</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>1003010</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B65" t="s">
         <v>17</v>
       </c>
-      <c r="C38">
-        <v>1003</v>
-      </c>
-      <c r="D38">
+      <c r="C65">
+        <v>1003</v>
+      </c>
+      <c r="D65">
         <v>100</v>
       </c>
-      <c r="E38">
+      <c r="E65">
         <v>201010</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>1003011</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B66" t="s">
         <v>25</v>
       </c>
-      <c r="C39">
-        <v>1003</v>
-      </c>
-      <c r="D39">
+      <c r="C66">
+        <v>1003</v>
+      </c>
+      <c r="D66">
         <v>100</v>
       </c>
-      <c r="E39">
+      <c r="E66">
         <v>313001</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>1003012</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B67" t="s">
         <v>18</v>
       </c>
-      <c r="C40">
-        <v>1003</v>
-      </c>
-      <c r="D40">
+      <c r="C67">
+        <v>1003</v>
+      </c>
+      <c r="D67">
         <v>100</v>
       </c>
-      <c r="E40">
+      <c r="E67">
         <v>322001</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>1003013</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B68" t="s">
         <v>26</v>
       </c>
-      <c r="C41">
-        <v>1003</v>
-      </c>
-      <c r="D41">
+      <c r="C68">
+        <v>1003</v>
+      </c>
+      <c r="D68">
         <v>100</v>
       </c>
-      <c r="E41">
+      <c r="E68">
         <v>333001</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>1003014</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B69" t="s">
         <v>27</v>
       </c>
-      <c r="C42">
-        <v>1003</v>
-      </c>
-      <c r="D42">
+      <c r="C69">
+        <v>1003</v>
+      </c>
+      <c r="D69">
         <v>100</v>
       </c>
-      <c r="E42">
+      <c r="E69">
         <v>332001</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>1003015</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B70" t="s">
         <v>23</v>
       </c>
-      <c r="C43">
-        <v>1003</v>
-      </c>
-      <c r="D43">
+      <c r="C70">
+        <v>1003</v>
+      </c>
+      <c r="D70">
         <v>100</v>
       </c>
-      <c r="E43">
+      <c r="E70">
         <v>332002</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>1003016</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B71" t="s">
         <v>24</v>
       </c>
-      <c r="C44">
-        <v>1003</v>
-      </c>
-      <c r="D44">
+      <c r="C71">
+        <v>1003</v>
+      </c>
+      <c r="D71">
         <v>100</v>
       </c>
-      <c r="E44">
+      <c r="E71">
         <v>332003</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>1003017</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B72" t="s">
         <v>19</v>
       </c>
-      <c r="C45">
-        <v>1003</v>
-      </c>
-      <c r="D45">
+      <c r="C72">
+        <v>1003</v>
+      </c>
+      <c r="D72">
         <v>100</v>
       </c>
-      <c r="E45">
+      <c r="E72">
         <v>331001</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>1003018</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B73" t="s">
         <v>20</v>
       </c>
-      <c r="C46">
-        <v>1003</v>
-      </c>
-      <c r="D46">
+      <c r="C73">
+        <v>1003</v>
+      </c>
+      <c r="D73">
         <v>100</v>
       </c>
-      <c r="E46">
+      <c r="E73">
         <v>331002</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>1003019</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B74" t="s">
         <v>21</v>
       </c>
-      <c r="C47">
-        <v>1003</v>
-      </c>
-      <c r="D47">
+      <c r="C74">
+        <v>1003</v>
+      </c>
+      <c r="D74">
         <v>100</v>
       </c>
-      <c r="E47">
+      <c r="E74">
         <v>331003</v>
       </c>
-      <c r="F47">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1003020</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75">
+        <v>1003</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <v>341005</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1003021</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76">
+        <v>1003</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+      <c r="E76">
+        <v>341014</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1003022</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77">
+        <v>1003</v>
+      </c>
+      <c r="D77">
+        <v>100</v>
+      </c>
+      <c r="E77">
+        <v>341009</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1003023</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78">
+        <v>1003</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <v>341012</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1003024</v>
+      </c>
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79">
+        <v>1003</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <v>341017</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1003025</v>
+      </c>
+      <c r="B80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80">
+        <v>1003</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80">
+        <v>341018</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1003026</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81">
+        <v>1003</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>341019</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1003027</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82">
+        <v>1003</v>
+      </c>
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82">
+        <v>341020</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1003028</v>
+      </c>
+      <c r="B83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83">
+        <v>1003</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83">
+        <v>341021</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1003029</v>
+      </c>
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84">
+        <v>1003</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84">
+        <v>341022</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1003030</v>
+      </c>
+      <c r="B85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85">
+        <v>1003</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85">
+        <v>341023</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1003031</v>
+      </c>
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86">
+        <v>1003</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86">
+        <v>341024</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1003032</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87">
+        <v>1003</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87">
+        <v>341025</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1003033</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88">
+        <v>1003</v>
+      </c>
+      <c r="D88">
+        <v>100</v>
+      </c>
+      <c r="E88">
+        <v>341026</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1003034</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89">
+        <v>1003</v>
+      </c>
+      <c r="D89">
+        <v>500</v>
+      </c>
+      <c r="E89">
+        <v>322002</v>
+      </c>
+      <c r="F89">
         <v>1</v>
       </c>
     </row>
@@ -2087,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC866BF9-E829-4339-BA0A-DDA95ECAF929}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="E7:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2137,6 +3085,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -2294,22 +3257,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2325,28 +3297,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118C14E1-2E7E-4F3C-8627-F17E396D95B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65608AE-D03B-4F62-BE4D-5168ED84568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="1200" windowWidth="17670" windowHeight="13110" firstSheet="1" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-26865" yWindow="1650" windowWidth="22680" windowHeight="13785" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -60,6 +60,7 @@
   <authors>
     <author>tc={900EBAE7-FA83-4C9D-95AE-AEA38F8BCB92}</author>
     <author>tc={E3C5F8C5-CFD7-4E34-BC27-E9971205B78C}</author>
+    <author>tc={06C9A071-FEF6-41D8-A638-6418C6ADD502}</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{900EBAE7-FA83-4C9D-95AE-AEA38F8BCB92}">
@@ -78,6 +79,18 @@
     확률 10000 으로 설정
 답글:
     단일 상품 / 뽑기 그룹 내 출현가능 아이템 전체 총합 * 100 확률로 아이템 출현</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{06C9A071-FEF6-41D8-A638-6418C6ADD502}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    뽑기 페이지에서 출현 아이템 리스트로 나오는지 여부(T/F)
+- 높은 등급의 아이템부터 상단/좌측 노출
+  1/2/3/4
+   5/6/7/8
+   9/10/11/12</t>
       </text>
     </comment>
   </commentList>
@@ -105,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">골드 확률 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나뭇가지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,14 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">냥냥가챠 뽑기권 확률 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">울트라 냥냥가챠 뽑기권 확률 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,6 +369,58 @@
   </si>
   <si>
     <t>핫핫 썬글라스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥냥 이모트 가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힝힝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과부하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">골드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카모플라쥬 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키메라 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레디 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일중독 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레오파드 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래닌자 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋ 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구워졌냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is_Promote</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +448,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -441,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +533,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,6 +904,13 @@
   <threadedComment ref="D1" dT="2024-11-26T07:06:41.56" personId="{C63CAAFE-5126-48D0-AB92-6D66926E1E10}" id="{A6681186-AF83-4175-8A1A-92EAC75B561C}" parentId="{E3C5F8C5-CFD7-4E34-BC27-E9971205B78C}">
     <text>단일 상품 / 뽑기 그룹 내 출현가능 아이템 전체 총합 * 100 확률로 아이템 출현</text>
   </threadedComment>
+  <threadedComment ref="G1" dT="2025-01-05T06:35:59.82" personId="{C63CAAFE-5126-48D0-AB92-6D66926E1E10}" id="{06C9A071-FEF6-41D8-A638-6418C6ADD502}">
+    <text>뽑기 페이지에서 출현 아이템 리스트로 나오는지 여부(T/F)
+- 높은 등급의 아이템부터 상단/좌측 노출
+  1/2/3/4
+   5/6/7/8
+   9/10/11/12</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -838,14 +928,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="16.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15.75" customWidth="1"/>
@@ -862,16 +952,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -885,7 +975,7 @@
         <v>100011</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>1001</v>
@@ -914,7 +1004,7 @@
         <v>100012</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>1002</v>
@@ -943,7 +1033,7 @@
         <v>100013</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <v>1003</v>
@@ -969,14 +1059,30 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45292</v>
+      </c>
+      <c r="I5" s="4">
+        <v>73050</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1069,7 +1175,6 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1230,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1241,9 +1346,10 @@
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,1093 +1368,1312 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001001</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1001</v>
       </c>
       <c r="D2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E2">
         <v>100001</v>
       </c>
       <c r="F2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="G2" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001002</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1001</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>100004</v>
+        <v>201002</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001003</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1001</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="E4">
-        <v>201001</v>
+        <v>201003</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1001004</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1001</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="E5">
-        <v>201002</v>
+        <v>201004</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1001005</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1001</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <v>201003</v>
+        <v>201005</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1001006</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1001</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="E7">
-        <v>201004</v>
+        <v>201006</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1001007</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1001</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>201005</v>
+        <v>201007</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1001008</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1001</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>201006</v>
+        <v>201008</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1001009</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1001</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>201007</v>
+        <v>201009</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1001010</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1001</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>201008</v>
+        <v>201010</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1001011</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>1001</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>201009</v>
+        <v>201011</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1001012</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>1001</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>201010</v>
+        <v>201012</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1001013</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>1001</v>
       </c>
       <c r="D14">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>322001</v>
+        <v>201013</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1001014</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <v>1001</v>
       </c>
       <c r="D15">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>331001</v>
+        <v>201014</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1001015</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>1001</v>
       </c>
       <c r="D16">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>331002</v>
+        <v>201015</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1001016</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>1001</v>
       </c>
       <c r="D17">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>331003</v>
+        <v>201016</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1001017</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <v>1001</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>341002</v>
+        <v>201017</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1001018</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>1001</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>341003</v>
+        <v>201018</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1001019</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>1001</v>
       </c>
       <c r="D20">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>341004</v>
+        <v>322001</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1001020</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>1001</v>
       </c>
       <c r="D21">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="E21">
-        <v>341005</v>
+        <v>331001</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1001021</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>1001</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="E22">
-        <v>341006</v>
+        <v>331002</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1001022</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>1001</v>
       </c>
       <c r="D23">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="E23">
-        <v>341007</v>
+        <v>331003</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1001023</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>1001</v>
       </c>
       <c r="D24">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>341008</v>
+        <v>332001</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1001024</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>1001</v>
       </c>
       <c r="D25">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>341009</v>
+        <v>332002</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1001025</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>1001</v>
       </c>
       <c r="D26">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>341010</v>
+        <v>332003</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>1001026</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27">
-        <v>1001</v>
-      </c>
-      <c r="D27">
-        <v>1000</v>
-      </c>
-      <c r="E27">
-        <v>341011</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1001027</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28">
-        <v>1001</v>
-      </c>
-      <c r="D28">
-        <v>1000</v>
-      </c>
-      <c r="E28">
-        <v>341012</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>1002001</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>100001</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>1002002</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D28" s="5">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5">
+        <v>201007</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>1002001</v>
+        <v>1002003</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C29" s="5">
         <v>1002</v>
       </c>
       <c r="D29" s="5">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="E29" s="5">
-        <v>100001</v>
+        <v>201008</v>
       </c>
       <c r="F29" s="5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>1002002</v>
+        <v>1002004</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C30" s="5">
         <v>1002</v>
       </c>
       <c r="D30" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E30" s="5">
-        <v>100005</v>
+        <v>201009</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>1002003</v>
+        <v>1002005</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="5">
         <v>1002</v>
       </c>
       <c r="D31" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E31" s="5">
-        <v>322001</v>
+        <v>201010</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>1002004</v>
+        <v>1002006</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C32" s="5">
         <v>1002</v>
       </c>
       <c r="D32" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E32" s="5">
-        <v>331001</v>
+        <v>201011</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>1002005</v>
+        <v>1002007</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C33" s="5">
         <v>1002</v>
       </c>
       <c r="D33" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5">
-        <v>331002</v>
+        <v>201012</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>1002006</v>
+        <v>1002008</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C34" s="5">
         <v>1002</v>
       </c>
       <c r="D34" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E34" s="5">
-        <v>331003</v>
+        <v>201013</v>
       </c>
       <c r="F34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>1002007</v>
+        <v>1002009</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5">
         <v>1002</v>
       </c>
       <c r="D35" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5">
-        <v>332001</v>
+        <v>201014</v>
       </c>
       <c r="F35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>1002008</v>
+        <v>1002010</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C36" s="5">
         <v>1002</v>
       </c>
       <c r="D36" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E36" s="5">
-        <v>332002</v>
+        <v>201015</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>1002009</v>
+        <v>1002011</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C37" s="5">
         <v>1002</v>
       </c>
       <c r="D37" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E37" s="5">
-        <v>332003</v>
+        <v>201016</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>1002010</v>
+        <v>1002012</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C38" s="5">
         <v>1002</v>
       </c>
       <c r="D38" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E38" s="5">
-        <v>313001</v>
+        <v>201017</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>1002011</v>
+        <v>1002013</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C39" s="5">
         <v>1002</v>
       </c>
       <c r="D39" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E39" s="5">
-        <v>333001</v>
+        <v>201018</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>1002012</v>
+        <v>1002014</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C40" s="5">
         <v>1002</v>
       </c>
       <c r="D40" s="5">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E40" s="5">
-        <v>341013</v>
+        <v>313001</v>
       </c>
       <c r="F40" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>1002013</v>
+        <v>1002015</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5">
         <v>1002</v>
       </c>
       <c r="D41" s="5">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E41" s="5">
-        <v>341014</v>
+        <v>322002</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <v>1002014</v>
+        <v>1002016</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C42" s="5">
         <v>1002</v>
       </c>
       <c r="D42" s="5">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E42" s="5">
-        <v>341015</v>
+        <v>333001</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>1002015</v>
+        <v>1002017</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C43" s="5">
         <v>1002</v>
       </c>
       <c r="D43" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E43" s="5">
-        <v>341016</v>
+        <v>332001</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>1002016</v>
+        <v>1002018</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C44" s="5">
         <v>1002</v>
       </c>
       <c r="D44" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E44" s="5">
-        <v>341017</v>
+        <v>332002</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>1002017</v>
+        <v>1002019</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C45" s="5">
         <v>1002</v>
       </c>
       <c r="D45" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E45" s="5">
-        <v>341018</v>
+        <v>332003</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>1002018</v>
+        <v>1002020</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C46" s="5">
         <v>1002</v>
       </c>
       <c r="D46" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E46" s="5">
-        <v>341019</v>
+        <v>341028</v>
       </c>
       <c r="F46" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>1002019</v>
+        <v>1002021</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C47" s="5">
         <v>1002</v>
       </c>
       <c r="D47" s="5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E47" s="5">
-        <v>341020</v>
+        <v>341029</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>1002020</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E48" s="5">
-        <v>341021</v>
-      </c>
-      <c r="F48" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>1002021</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E49" s="5">
-        <v>341022</v>
-      </c>
-      <c r="F49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>1002022</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E50" s="5">
-        <v>341023</v>
-      </c>
-      <c r="F50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>1002023</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E51" s="5">
-        <v>341024</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>1002024</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E52" s="5">
-        <v>341025</v>
-      </c>
-      <c r="F52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>1002025</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E53" s="5">
-        <v>341026</v>
-      </c>
-      <c r="F53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>1002026</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E54" s="5">
-        <v>341027</v>
-      </c>
-      <c r="F54" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
-        <v>1002027</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D55" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E55" s="5">
-        <v>322002</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1003001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1003</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>201001</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1003002</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>1003</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>201002</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1003003</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1003</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>201003</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1003004</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>1003</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>201004</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1003005</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>1003</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>201005</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1003006</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>1003</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <v>201006</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1003007</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>1003</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>201007</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1003008</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>1003</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>201008</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1003001</v>
+        <v>1003009</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>1003</v>
@@ -2357,18 +2682,22 @@
         <v>100</v>
       </c>
       <c r="E56">
-        <v>201001</v>
+        <v>201009</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1003002</v>
+        <v>1003010</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C57">
         <v>1003</v>
@@ -2377,18 +2706,22 @@
         <v>100</v>
       </c>
       <c r="E57">
-        <v>201002</v>
+        <v>201010</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1003003</v>
+        <v>1003011</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C58">
         <v>1003</v>
@@ -2397,18 +2730,22 @@
         <v>100</v>
       </c>
       <c r="E58">
-        <v>201003</v>
+        <v>313001</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1003004</v>
+        <v>1003012</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C59">
         <v>1003</v>
@@ -2417,18 +2754,22 @@
         <v>100</v>
       </c>
       <c r="E59">
-        <v>201004</v>
+        <v>322001</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1003005</v>
+        <v>1003013</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C60">
         <v>1003</v>
@@ -2437,18 +2778,22 @@
         <v>100</v>
       </c>
       <c r="E60">
-        <v>201005</v>
+        <v>333001</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1003006</v>
+        <v>1003014</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C61">
         <v>1003</v>
@@ -2457,18 +2802,22 @@
         <v>100</v>
       </c>
       <c r="E61">
-        <v>201006</v>
+        <v>332001</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1003007</v>
+        <v>1003015</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>1003</v>
@@ -2477,18 +2826,22 @@
         <v>100</v>
       </c>
       <c r="E62">
-        <v>201007</v>
+        <v>332002</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1003008</v>
+        <v>1003016</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C63">
         <v>1003</v>
@@ -2497,18 +2850,22 @@
         <v>100</v>
       </c>
       <c r="E63">
-        <v>201008</v>
+        <v>332003</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1003009</v>
+        <v>1003017</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C64">
         <v>1003</v>
@@ -2517,18 +2874,22 @@
         <v>100</v>
       </c>
       <c r="E64">
-        <v>201009</v>
+        <v>331001</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1003010</v>
+        <v>1003018</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C65">
         <v>1003</v>
@@ -2537,18 +2898,22 @@
         <v>100</v>
       </c>
       <c r="E65">
-        <v>201010</v>
+        <v>331002</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1003011</v>
+        <v>1003019</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C66">
         <v>1003</v>
@@ -2557,18 +2922,22 @@
         <v>100</v>
       </c>
       <c r="E66">
-        <v>313001</v>
+        <v>331003</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1003012</v>
+        <v>1003020</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C67">
         <v>1003</v>
@@ -2577,18 +2946,22 @@
         <v>100</v>
       </c>
       <c r="E67">
-        <v>322001</v>
+        <v>341005</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1003013</v>
+        <v>1003021</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C68">
         <v>1003</v>
@@ -2597,18 +2970,22 @@
         <v>100</v>
       </c>
       <c r="E68">
-        <v>333001</v>
+        <v>341014</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1003014</v>
+        <v>1003022</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C69">
         <v>1003</v>
@@ -2617,18 +2994,22 @@
         <v>100</v>
       </c>
       <c r="E69">
-        <v>332001</v>
+        <v>341009</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1003015</v>
+        <v>1003023</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C70">
         <v>1003</v>
@@ -2637,18 +3018,22 @@
         <v>100</v>
       </c>
       <c r="E70">
-        <v>332002</v>
+        <v>341012</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1003016</v>
+        <v>1003024</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C71">
         <v>1003</v>
@@ -2657,18 +3042,22 @@
         <v>100</v>
       </c>
       <c r="E71">
-        <v>332003</v>
+        <v>341017</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1003017</v>
+        <v>1003025</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C72">
         <v>1003</v>
@@ -2677,18 +3066,22 @@
         <v>100</v>
       </c>
       <c r="E72">
-        <v>331001</v>
+        <v>341018</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1003018</v>
+        <v>1003026</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C73">
         <v>1003</v>
@@ -2697,18 +3090,22 @@
         <v>100</v>
       </c>
       <c r="E73">
-        <v>331002</v>
+        <v>341019</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1003019</v>
+        <v>1003027</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C74">
         <v>1003</v>
@@ -2717,18 +3114,22 @@
         <v>100</v>
       </c>
       <c r="E74">
-        <v>331003</v>
+        <v>341020</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1003020</v>
+        <v>1003028</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C75">
         <v>1003</v>
@@ -2737,18 +3138,22 @@
         <v>100</v>
       </c>
       <c r="E75">
-        <v>341005</v>
+        <v>341021</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1003021</v>
+        <v>1003029</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C76">
         <v>1003</v>
@@ -2757,18 +3162,22 @@
         <v>100</v>
       </c>
       <c r="E76">
-        <v>341014</v>
+        <v>341022</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1003022</v>
+        <v>1003030</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C77">
         <v>1003</v>
@@ -2777,18 +3186,22 @@
         <v>100</v>
       </c>
       <c r="E77">
-        <v>341009</v>
+        <v>341023</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1003023</v>
+        <v>1003031</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C78">
         <v>1003</v>
@@ -2797,18 +3210,22 @@
         <v>100</v>
       </c>
       <c r="E78">
-        <v>341012</v>
+        <v>341024</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1003024</v>
+        <v>1003032</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C79">
         <v>1003</v>
@@ -2817,18 +3234,22 @@
         <v>100</v>
       </c>
       <c r="E79">
-        <v>341017</v>
+        <v>341025</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1003025</v>
+        <v>1003033</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C80">
         <v>1003</v>
@@ -2837,189 +3258,709 @@
         <v>100</v>
       </c>
       <c r="E80">
-        <v>341018</v>
+        <v>341026</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1003026</v>
+        <v>1003034</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C81">
         <v>1003</v>
       </c>
       <c r="D81">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E81">
+        <v>322002</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>1004001</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D82" s="5">
+        <v>70</v>
+      </c>
+      <c r="E82" s="5">
+        <v>341002</v>
+      </c>
+      <c r="F82" s="5">
+        <v>1</v>
+      </c>
+      <c r="G82" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <v>1004002</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D83" s="5">
+        <v>70</v>
+      </c>
+      <c r="E83" s="5">
+        <v>341003</v>
+      </c>
+      <c r="F83" s="5">
+        <v>1</v>
+      </c>
+      <c r="G83" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>1004003</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D84" s="5">
+        <v>70</v>
+      </c>
+      <c r="E84" s="5">
+        <v>341004</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1</v>
+      </c>
+      <c r="G84" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>1004004</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D85" s="5">
+        <v>70</v>
+      </c>
+      <c r="E85" s="5">
+        <v>341005</v>
+      </c>
+      <c r="F85" s="5">
+        <v>1</v>
+      </c>
+      <c r="G85" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>1004005</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D86" s="5">
+        <v>70</v>
+      </c>
+      <c r="E86" s="5">
+        <v>341006</v>
+      </c>
+      <c r="F86" s="5">
+        <v>1</v>
+      </c>
+      <c r="G86" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>1004006</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D87" s="5">
+        <v>70</v>
+      </c>
+      <c r="E87" s="5">
+        <v>341007</v>
+      </c>
+      <c r="F87" s="5">
+        <v>1</v>
+      </c>
+      <c r="G87" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>1004007</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D88" s="5">
+        <v>70</v>
+      </c>
+      <c r="E88" s="5">
+        <v>341008</v>
+      </c>
+      <c r="F88" s="5">
+        <v>1</v>
+      </c>
+      <c r="G88" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>1004008</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D89" s="5">
+        <v>70</v>
+      </c>
+      <c r="E89" s="5">
+        <v>341009</v>
+      </c>
+      <c r="F89" s="5">
+        <v>1</v>
+      </c>
+      <c r="G89" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>1004009</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D90" s="5">
+        <v>70</v>
+      </c>
+      <c r="E90" s="5">
+        <v>341010</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1</v>
+      </c>
+      <c r="G90" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>1004010</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D91" s="5">
+        <v>70</v>
+      </c>
+      <c r="E91" s="5">
+        <v>341011</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1</v>
+      </c>
+      <c r="G91" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>1004011</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D92" s="5">
+        <v>70</v>
+      </c>
+      <c r="E92" s="5">
+        <v>341012</v>
+      </c>
+      <c r="F92" s="5">
+        <v>1</v>
+      </c>
+      <c r="G92" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>1004012</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D93" s="5">
+        <v>70</v>
+      </c>
+      <c r="E93" s="5">
+        <v>341013</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1</v>
+      </c>
+      <c r="G93" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>1004013</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D94" s="5">
+        <v>70</v>
+      </c>
+      <c r="E94" s="5">
+        <v>341014</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1</v>
+      </c>
+      <c r="G94" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>1004014</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D95" s="5">
+        <v>70</v>
+      </c>
+      <c r="E95" s="5">
+        <v>341015</v>
+      </c>
+      <c r="F95" s="5">
+        <v>1</v>
+      </c>
+      <c r="G95" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>1004015</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D96" s="5">
+        <v>70</v>
+      </c>
+      <c r="E96" s="5">
+        <v>341016</v>
+      </c>
+      <c r="F96" s="5">
+        <v>1</v>
+      </c>
+      <c r="G96" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>1004016</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D97" s="5">
+        <v>70</v>
+      </c>
+      <c r="E97" s="5">
+        <v>341017</v>
+      </c>
+      <c r="F97" s="5">
+        <v>1</v>
+      </c>
+      <c r="G97" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>1004017</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D98" s="5">
+        <v>20</v>
+      </c>
+      <c r="E98" s="5">
+        <v>341018</v>
+      </c>
+      <c r="F98" s="5">
+        <v>1</v>
+      </c>
+      <c r="G98" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>1004018</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D99" s="5">
+        <v>20</v>
+      </c>
+      <c r="E99" s="5">
         <v>341019</v>
       </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>1003027</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="F99" s="5">
+        <v>1</v>
+      </c>
+      <c r="G99" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>1004019</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D100" s="5">
+        <v>20</v>
+      </c>
+      <c r="E100" s="5">
+        <v>341020</v>
+      </c>
+      <c r="F100" s="5">
+        <v>1</v>
+      </c>
+      <c r="G100" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>1004020</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D101" s="5">
+        <v>20</v>
+      </c>
+      <c r="E101" s="5">
+        <v>341021</v>
+      </c>
+      <c r="F101" s="5">
+        <v>1</v>
+      </c>
+      <c r="G101" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>1004021</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D102" s="5">
+        <v>20</v>
+      </c>
+      <c r="E102" s="5">
+        <v>341022</v>
+      </c>
+      <c r="F102" s="5">
+        <v>1</v>
+      </c>
+      <c r="G102" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <v>1004022</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C82">
-        <v>1003</v>
-      </c>
-      <c r="D82">
-        <v>100</v>
-      </c>
-      <c r="E82">
-        <v>341020</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>1003028</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C103" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D103" s="5">
+        <v>20</v>
+      </c>
+      <c r="E103" s="5">
+        <v>341023</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1</v>
+      </c>
+      <c r="G103" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>1004023</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C83">
-        <v>1003</v>
-      </c>
-      <c r="D83">
-        <v>100</v>
-      </c>
-      <c r="E83">
-        <v>341021</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>1003029</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C104" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D104" s="5">
+        <v>20</v>
+      </c>
+      <c r="E104" s="5">
+        <v>341024</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1</v>
+      </c>
+      <c r="G104" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>1004024</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C84">
-        <v>1003</v>
-      </c>
-      <c r="D84">
-        <v>100</v>
-      </c>
-      <c r="E84">
-        <v>341022</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>1003030</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C105" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D105" s="5">
+        <v>20</v>
+      </c>
+      <c r="E105" s="5">
+        <v>341025</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1</v>
+      </c>
+      <c r="G105" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>1004025</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C85">
-        <v>1003</v>
-      </c>
-      <c r="D85">
-        <v>100</v>
-      </c>
-      <c r="E85">
-        <v>341023</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>1003031</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C106" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D106" s="5">
+        <v>20</v>
+      </c>
+      <c r="E106" s="5">
+        <v>341026</v>
+      </c>
+      <c r="F106" s="5">
+        <v>1</v>
+      </c>
+      <c r="G106" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>1004026</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C86">
-        <v>1003</v>
-      </c>
-      <c r="D86">
-        <v>100</v>
-      </c>
-      <c r="E86">
-        <v>341024</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>1003032</v>
-      </c>
-      <c r="B87" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87">
-        <v>1003</v>
-      </c>
-      <c r="D87">
-        <v>100</v>
-      </c>
-      <c r="E87">
-        <v>341025</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>1003033</v>
-      </c>
-      <c r="B88" t="s">
-        <v>63</v>
-      </c>
-      <c r="C88">
-        <v>1003</v>
-      </c>
-      <c r="D88">
-        <v>100</v>
-      </c>
-      <c r="E88">
-        <v>341026</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>1003034</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C107" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D107" s="5">
+        <v>20</v>
+      </c>
+      <c r="E107" s="5">
+        <v>341027</v>
+      </c>
+      <c r="F107" s="5">
+        <v>1</v>
+      </c>
+      <c r="G107" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>1004027</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D108" s="5">
+        <v>20</v>
+      </c>
+      <c r="E108" s="5">
+        <v>341028</v>
+      </c>
+      <c r="F108" s="5">
+        <v>1</v>
+      </c>
+      <c r="G108" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>1004028</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C89">
-        <v>1003</v>
-      </c>
-      <c r="D89">
-        <v>500</v>
-      </c>
-      <c r="E89">
-        <v>322002</v>
-      </c>
-      <c r="F89">
+      <c r="C109" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D109" s="5">
+        <v>20</v>
+      </c>
+      <c r="E109" s="5">
+        <v>341029</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1</v>
+      </c>
+      <c r="G109" s="10" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
     </row>
@@ -3047,10 +3988,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3085,21 +4026,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -3257,7 +4183,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3273,28 +4232,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65608AE-D03B-4F62-BE4D-5168ED84568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30496ABC-D28F-4324-A814-103CBDC60915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26865" yWindow="1650" windowWidth="22680" windowHeight="13785" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,10 @@
   </si>
   <si>
     <t>Is_Promote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is_Visible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,22 +930,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K20:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.75" customWidth="1"/>
+    <col min="4" max="7" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,8 +973,11 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>100011</v>
       </c>
@@ -998,8 +1005,13 @@
       <c r="I2" s="4">
         <v>73050</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100012</v>
       </c>
@@ -1027,8 +1039,13 @@
       <c r="I3" s="4">
         <v>73050</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>100013</v>
       </c>
@@ -1056,9 +1073,15 @@
       <c r="I4" s="4">
         <v>73050</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="J4" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>100014</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
@@ -1083,8 +1106,12 @@
       <c r="I5" s="4">
         <v>73050</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1095,7 +1122,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1106,7 +1133,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1117,7 +1144,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1128,7 +1155,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1139,7 +1166,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1150,7 +1177,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1161,7 +1188,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1172,7 +1199,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
@@ -1182,7 +1209,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1193,7 +1220,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1204,7 +1231,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1215,7 +1242,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1226,7 +1253,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1237,7 +1264,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1248,7 +1275,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1259,7 +1286,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1270,7 +1297,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1281,7 +1308,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1292,7 +1319,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1303,7 +1330,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1314,7 +1341,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1337,19 +1364,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" customWidth="1"/>
     <col min="3" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1001001</v>
       </c>
@@ -1396,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001002</v>
       </c>
@@ -1420,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1001003</v>
       </c>
@@ -1444,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1001004</v>
       </c>
@@ -1468,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1001005</v>
       </c>
@@ -1492,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1001006</v>
       </c>
@@ -1516,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1001007</v>
       </c>
@@ -1540,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1001008</v>
       </c>
@@ -1564,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1001009</v>
       </c>
@@ -1588,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1001010</v>
       </c>
@@ -1612,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1001011</v>
       </c>
@@ -1636,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1001012</v>
       </c>
@@ -1660,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1001013</v>
       </c>
@@ -1684,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1001014</v>
       </c>
@@ -1708,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1001015</v>
       </c>
@@ -1732,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1001016</v>
       </c>
@@ -1756,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1001017</v>
       </c>
@@ -1780,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1001018</v>
       </c>
@@ -1804,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1001019</v>
       </c>
@@ -1828,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1001020</v>
       </c>
@@ -1852,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1001021</v>
       </c>
@@ -1876,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1001022</v>
       </c>
@@ -1900,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1001023</v>
       </c>
@@ -1924,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1001024</v>
       </c>
@@ -1948,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1001025</v>
       </c>
@@ -1972,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>1002001</v>
       </c>
@@ -1996,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>1002002</v>
       </c>
@@ -2020,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>1002003</v>
       </c>
@@ -2044,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>1002004</v>
       </c>
@@ -2068,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>1002005</v>
       </c>
@@ -2092,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>1002006</v>
       </c>
@@ -2116,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>1002007</v>
       </c>
@@ -2140,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>1002008</v>
       </c>
@@ -2164,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>1002009</v>
       </c>
@@ -2188,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>1002010</v>
       </c>
@@ -2212,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>1002011</v>
       </c>
@@ -2236,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>1002012</v>
       </c>
@@ -2260,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>1002013</v>
       </c>
@@ -2284,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>1002014</v>
       </c>
@@ -2308,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>1002015</v>
       </c>
@@ -2332,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>1002016</v>
       </c>
@@ -2356,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>1002017</v>
       </c>
@@ -2380,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>1002018</v>
       </c>
@@ -2404,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>1002019</v>
       </c>
@@ -2428,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>1002020</v>
       </c>
@@ -2452,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>1002021</v>
       </c>
@@ -2476,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1003001</v>
       </c>
@@ -2500,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1003002</v>
       </c>
@@ -2524,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1003003</v>
       </c>
@@ -2548,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1003004</v>
       </c>
@@ -2572,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1003005</v>
       </c>
@@ -2596,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1003006</v>
       </c>
@@ -2620,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1003007</v>
       </c>
@@ -2644,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1003008</v>
       </c>
@@ -2668,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1003009</v>
       </c>
@@ -2692,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1003010</v>
       </c>
@@ -2716,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1003011</v>
       </c>
@@ -2740,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>1003012</v>
       </c>
@@ -2764,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1003013</v>
       </c>
@@ -2788,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>1003014</v>
       </c>
@@ -2812,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>1003015</v>
       </c>
@@ -2836,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1003016</v>
       </c>
@@ -2860,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1003017</v>
       </c>
@@ -2884,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1003018</v>
       </c>
@@ -2908,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1003019</v>
       </c>
@@ -2932,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1003020</v>
       </c>
@@ -2956,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>1003021</v>
       </c>
@@ -2980,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1003022</v>
       </c>
@@ -3004,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1003023</v>
       </c>
@@ -3028,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1003024</v>
       </c>
@@ -3052,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>1003025</v>
       </c>
@@ -3076,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1003026</v>
       </c>
@@ -3100,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>1003027</v>
       </c>
@@ -3124,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>1003028</v>
       </c>
@@ -3148,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>1003029</v>
       </c>
@@ -3172,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>1003030</v>
       </c>
@@ -3196,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>1003031</v>
       </c>
@@ -3220,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>1003032</v>
       </c>
@@ -3244,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>1003033</v>
       </c>
@@ -3268,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>1003034</v>
       </c>
@@ -3292,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>1004001</v>
       </c>
@@ -3316,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>1004002</v>
       </c>
@@ -3340,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>1004003</v>
       </c>
@@ -3364,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>1004004</v>
       </c>
@@ -3388,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>1004005</v>
       </c>
@@ -3412,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>1004006</v>
       </c>
@@ -3436,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>1004007</v>
       </c>
@@ -3460,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>1004008</v>
       </c>
@@ -3484,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>1004009</v>
       </c>
@@ -3508,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>1004010</v>
       </c>
@@ -3532,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>1004011</v>
       </c>
@@ -3556,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>1004012</v>
       </c>
@@ -3580,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>1004013</v>
       </c>
@@ -3604,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>1004014</v>
       </c>
@@ -3628,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>1004015</v>
       </c>
@@ -3652,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>1004016</v>
       </c>
@@ -3676,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>1004017</v>
       </c>
@@ -3700,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>1004018</v>
       </c>
@@ -3724,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>1004019</v>
       </c>
@@ -3748,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>1004020</v>
       </c>
@@ -3772,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>1004021</v>
       </c>
@@ -3796,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>1004022</v>
       </c>
@@ -3820,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>1004023</v>
       </c>
@@ -3844,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>1004024</v>
       </c>
@@ -3868,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>1004025</v>
       </c>
@@ -3892,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>1004026</v>
       </c>
@@ -3916,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>1004027</v>
       </c>
@@ -3940,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>1004028</v>
       </c>
@@ -3980,13 +4007,13 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3994,7 +4021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4002,7 +4029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4010,7 +4037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4026,6 +4053,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -4183,35 +4225,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4233,9 +4250,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30496ABC-D28F-4324-A814-103CBDC60915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32319B8D-D4F9-46BB-B640-AC229D1B7A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -932,20 +932,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K20:K21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.69921875" customWidth="1"/>
+    <col min="4" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>100011</v>
       </c>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>100012</v>
       </c>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>100013</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>100014</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1122,7 +1122,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1133,7 +1133,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1144,7 +1144,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1155,7 +1155,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1166,7 +1166,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1177,7 +1177,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1188,7 +1188,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1199,7 +1199,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
@@ -1209,7 +1209,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1220,7 +1220,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1231,7 +1231,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1242,7 +1242,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1253,7 +1253,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1264,7 +1264,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1275,7 +1275,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1286,7 +1286,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1297,7 +1297,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1308,7 +1308,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1319,7 +1319,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1330,7 +1330,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1341,7 +1341,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1364,19 +1364,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" customWidth="1"/>
-    <col min="2" max="2" width="26.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001001</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001002</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001003</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1001004</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1001005</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1001006</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1001007</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1001008</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1001009</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1001010</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1001011</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1001012</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1001013</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1001014</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1001015</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1001016</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1001017</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1001018</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1001019</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1001020</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1001021</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1001022</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1001023</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1001024</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1001025</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>1002001</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>1002</v>
       </c>
       <c r="D27" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E27" s="5">
         <v>100001</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>1002002</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>1002003</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>1002004</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1002005</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>1002006</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>1002007</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>1002008</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>1002009</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>1002010</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>1002011</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>1002012</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>1002013</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>1002014</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>1002015</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>1002016</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>1002017</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>1002018</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>1002019</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>1002020</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>1002021</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1003001</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1003002</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1003003</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1003004</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1003005</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1003006</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1003007</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1003008</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1003009</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1003010</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1003011</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1003012</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1003013</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1003014</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1003015</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1003016</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1003017</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1003018</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1003019</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1003020</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1003021</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1003022</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1003023</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1003024</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1003025</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1003026</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1003027</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1003028</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1003029</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1003030</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1003031</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1003032</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1003033</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1003034</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>1004001</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>1004002</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>1004003</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>1004004</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>1004005</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>1004006</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>1004007</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>1004008</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>1004009</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>1004010</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>1004011</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>1004012</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>1004013</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>1004014</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>1004015</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>1004016</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>1004017</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>1004018</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>1004019</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>1004020</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>1004021</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>1004022</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>1004023</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>1004024</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>1004025</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>1004026</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>1004027</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>1004028</v>
       </c>
@@ -4007,13 +4007,13 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4053,21 +4053,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -4225,10 +4210,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4250,19 +4260,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32319B8D-D4F9-46BB-B640-AC229D1B7A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD67F24-6F2B-4D5B-B417-AC3135770B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
@@ -933,7 +933,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1410,7 @@
         <v>1001</v>
       </c>
       <c r="D2">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>100001</v>
@@ -2010,7 +2010,7 @@
         <v>1002</v>
       </c>
       <c r="D27" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E27" s="5">
         <v>100001</v>
@@ -4053,6 +4053,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -4210,35 +4225,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4260,9 +4250,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Desktop\CBT 밸런싱\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD67F24-6F2B-4D5B-B417-AC3135770B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD2D185-F2EA-44DD-B1E7-0BE81DC5B0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="13140" windowHeight="11460" firstSheet="1" activeTab="2" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,14 @@
   </si>
   <si>
     <t>Is_Visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교복 스킨1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑켄냥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,19 +941,19 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.75" customWidth="1"/>
+    <col min="4" max="7" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>100011</v>
       </c>
@@ -1011,7 +1019,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>100012</v>
       </c>
@@ -1045,7 +1053,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>100013</v>
       </c>
@@ -1078,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>100014</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1122,7 +1130,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1133,7 +1141,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1144,7 +1152,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1155,7 +1163,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1166,7 +1174,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1177,7 +1185,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1188,7 +1196,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1199,7 +1207,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
@@ -1209,7 +1217,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1220,7 +1228,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1231,7 +1239,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1242,7 +1250,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1253,7 +1261,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1264,7 +1272,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1275,7 +1283,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1286,7 +1294,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1297,7 +1305,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1308,7 +1316,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1319,7 +1327,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1330,7 +1338,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1341,7 +1349,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1362,21 +1370,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K11"/>
+    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" customWidth="1"/>
     <col min="3" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1001001</v>
       </c>
@@ -1423,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001002</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1001003</v>
       </c>
@@ -1471,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1001004</v>
       </c>
@@ -1495,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1001005</v>
       </c>
@@ -1519,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1001006</v>
       </c>
@@ -1543,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1001007</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1001008</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1001009</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1001010</v>
       </c>
@@ -1639,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1001011</v>
       </c>
@@ -1663,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1001012</v>
       </c>
@@ -1687,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1001013</v>
       </c>
@@ -1711,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1001014</v>
       </c>
@@ -1735,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1001015</v>
       </c>
@@ -1759,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1001016</v>
       </c>
@@ -1783,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1001017</v>
       </c>
@@ -1807,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1001018</v>
       </c>
@@ -1831,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1001019</v>
       </c>
@@ -1855,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1001020</v>
       </c>
@@ -1879,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1001021</v>
       </c>
@@ -1903,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1001022</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1001023</v>
       </c>
@@ -1951,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1001024</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1001025</v>
       </c>
@@ -1999,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>1002001</v>
       </c>
@@ -2023,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>1002002</v>
       </c>
@@ -2047,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>1002003</v>
       </c>
@@ -2071,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>1002004</v>
       </c>
@@ -2095,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>1002005</v>
       </c>
@@ -2119,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>1002006</v>
       </c>
@@ -2143,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>1002007</v>
       </c>
@@ -2167,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>1002008</v>
       </c>
@@ -2191,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>1002009</v>
       </c>
@@ -2215,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>1002010</v>
       </c>
@@ -2239,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>1002011</v>
       </c>
@@ -2263,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>1002012</v>
       </c>
@@ -2287,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>1002013</v>
       </c>
@@ -2311,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>1002014</v>
       </c>
@@ -2330,12 +2338,12 @@
       <c r="F40" s="5">
         <v>1</v>
       </c>
-      <c r="G40" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>1002015</v>
       </c>
@@ -2359,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>1002016</v>
       </c>
@@ -2383,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>1002017</v>
       </c>
@@ -2407,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>1002018</v>
       </c>
@@ -2431,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>1002019</v>
       </c>
@@ -2450,12 +2458,12 @@
       <c r="F45" s="5">
         <v>1</v>
       </c>
-      <c r="G45" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>1002020</v>
       </c>
@@ -2479,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>1002021</v>
       </c>
@@ -2503,60 +2511,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="5">
+        <v>1002022</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D48" s="5">
+        <v>10</v>
+      </c>
+      <c r="E48" s="5">
+        <v>201021</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="5">
+        <v>1002023</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D49" s="5">
+        <v>10</v>
+      </c>
+      <c r="E49" s="5">
+        <v>201024</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50">
         <v>1003001</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>8</v>
-      </c>
-      <c r="C48">
-        <v>1003</v>
-      </c>
-      <c r="D48">
-        <v>100</v>
-      </c>
-      <c r="E48">
-        <v>201001</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>1003002</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>1003</v>
-      </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
-      <c r="E49">
-        <v>201002</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1003003</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
       </c>
       <c r="C50">
         <v>1003</v>
@@ -2565,7 +2573,7 @@
         <v>100</v>
       </c>
       <c r="E50">
-        <v>201003</v>
+        <v>201001</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2575,12 +2583,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1003004</v>
+        <v>1003002</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>1003</v>
@@ -2589,7 +2597,7 @@
         <v>100</v>
       </c>
       <c r="E51">
-        <v>201004</v>
+        <v>201002</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2599,12 +2607,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1003005</v>
+        <v>1003003</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>1003</v>
@@ -2613,7 +2621,7 @@
         <v>100</v>
       </c>
       <c r="E52">
-        <v>201005</v>
+        <v>201003</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2623,12 +2631,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1003006</v>
+        <v>1003004</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>1003</v>
@@ -2637,7 +2645,7 @@
         <v>100</v>
       </c>
       <c r="E53">
-        <v>201006</v>
+        <v>201004</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2647,12 +2655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1003007</v>
+        <v>1003005</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>1003</v>
@@ -2661,7 +2669,7 @@
         <v>100</v>
       </c>
       <c r="E54">
-        <v>201007</v>
+        <v>201005</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2671,12 +2679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1003008</v>
+        <v>1003006</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <v>1003</v>
@@ -2685,7 +2693,7 @@
         <v>100</v>
       </c>
       <c r="E55">
-        <v>201008</v>
+        <v>201006</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2695,12 +2703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1003009</v>
+        <v>1003007</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>1003</v>
@@ -2709,7 +2717,7 @@
         <v>100</v>
       </c>
       <c r="E56">
-        <v>201009</v>
+        <v>201007</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2719,12 +2727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1003010</v>
+        <v>1003008</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>1003</v>
@@ -2733,7 +2741,7 @@
         <v>100</v>
       </c>
       <c r="E57">
-        <v>201010</v>
+        <v>201008</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2743,12 +2751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1003011</v>
+        <v>1003009</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C58">
         <v>1003</v>
@@ -2757,7 +2765,7 @@
         <v>100</v>
       </c>
       <c r="E58">
-        <v>313001</v>
+        <v>201009</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2767,12 +2775,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1003012</v>
+        <v>1003010</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59">
         <v>1003</v>
@@ -2781,7 +2789,7 @@
         <v>100</v>
       </c>
       <c r="E59">
-        <v>322001</v>
+        <v>201010</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2791,12 +2799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1003013</v>
+        <v>1003011</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>1003</v>
@@ -2805,7 +2813,7 @@
         <v>100</v>
       </c>
       <c r="E60">
-        <v>333001</v>
+        <v>313001</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2815,12 +2823,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1003014</v>
+        <v>1003012</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>1003</v>
@@ -2829,7 +2837,7 @@
         <v>100</v>
       </c>
       <c r="E61">
-        <v>332001</v>
+        <v>322001</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2839,12 +2847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1003015</v>
+        <v>1003013</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>1003</v>
@@ -2853,7 +2861,7 @@
         <v>100</v>
       </c>
       <c r="E62">
-        <v>332002</v>
+        <v>333001</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2863,12 +2871,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1003016</v>
+        <v>1003014</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C63">
         <v>1003</v>
@@ -2877,7 +2885,7 @@
         <v>100</v>
       </c>
       <c r="E63">
-        <v>332003</v>
+        <v>332001</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2887,12 +2895,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1003017</v>
+        <v>1003015</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>1003</v>
@@ -2901,7 +2909,7 @@
         <v>100</v>
       </c>
       <c r="E64">
-        <v>331001</v>
+        <v>332002</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2911,12 +2919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1003018</v>
+        <v>1003016</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>1003</v>
@@ -2925,7 +2933,7 @@
         <v>100</v>
       </c>
       <c r="E65">
-        <v>331002</v>
+        <v>332003</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2935,12 +2943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1003019</v>
+        <v>1003017</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C66">
         <v>1003</v>
@@ -2949,7 +2957,7 @@
         <v>100</v>
       </c>
       <c r="E66">
-        <v>331003</v>
+        <v>331001</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2959,12 +2967,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>1003020</v>
+        <v>1003018</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C67">
         <v>1003</v>
@@ -2973,7 +2981,7 @@
         <v>100</v>
       </c>
       <c r="E67">
-        <v>341005</v>
+        <v>331002</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2983,12 +2991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>1003021</v>
+        <v>1003019</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C68">
         <v>1003</v>
@@ -2997,7 +3005,7 @@
         <v>100</v>
       </c>
       <c r="E68">
-        <v>341014</v>
+        <v>331003</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3007,12 +3015,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>1003022</v>
+        <v>1003020</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C69">
         <v>1003</v>
@@ -3021,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="E69">
-        <v>341009</v>
+        <v>341005</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3031,12 +3039,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>1003023</v>
+        <v>1003021</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C70">
         <v>1003</v>
@@ -3045,7 +3053,7 @@
         <v>100</v>
       </c>
       <c r="E70">
-        <v>341012</v>
+        <v>341014</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3055,12 +3063,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1003024</v>
+        <v>1003022</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C71">
         <v>1003</v>
@@ -3069,7 +3077,7 @@
         <v>100</v>
       </c>
       <c r="E71">
-        <v>341017</v>
+        <v>341009</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3079,12 +3087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>1003025</v>
+        <v>1003023</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C72">
         <v>1003</v>
@@ -3093,7 +3101,7 @@
         <v>100</v>
       </c>
       <c r="E72">
-        <v>341018</v>
+        <v>341012</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3103,12 +3111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1003026</v>
+        <v>1003024</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C73">
         <v>1003</v>
@@ -3117,7 +3125,7 @@
         <v>100</v>
       </c>
       <c r="E73">
-        <v>341019</v>
+        <v>341017</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3127,12 +3135,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1003027</v>
+        <v>1003025</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C74">
         <v>1003</v>
@@ -3141,7 +3149,7 @@
         <v>100</v>
       </c>
       <c r="E74">
-        <v>341020</v>
+        <v>341018</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3151,12 +3159,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1003028</v>
+        <v>1003026</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C75">
         <v>1003</v>
@@ -3165,7 +3173,7 @@
         <v>100</v>
       </c>
       <c r="E75">
-        <v>341021</v>
+        <v>341019</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3175,12 +3183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>1003029</v>
+        <v>1003027</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C76">
         <v>1003</v>
@@ -3189,7 +3197,7 @@
         <v>100</v>
       </c>
       <c r="E76">
-        <v>341022</v>
+        <v>341020</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3199,12 +3207,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>1003030</v>
+        <v>1003028</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C77">
         <v>1003</v>
@@ -3213,7 +3221,7 @@
         <v>100</v>
       </c>
       <c r="E77">
-        <v>341023</v>
+        <v>341021</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3223,12 +3231,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>1003031</v>
+        <v>1003029</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C78">
         <v>1003</v>
@@ -3237,7 +3245,7 @@
         <v>100</v>
       </c>
       <c r="E78">
-        <v>341024</v>
+        <v>341022</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3247,12 +3255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>1003032</v>
+        <v>1003030</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C79">
         <v>1003</v>
@@ -3261,7 +3269,7 @@
         <v>100</v>
       </c>
       <c r="E79">
-        <v>341025</v>
+        <v>341023</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3271,12 +3279,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>1003033</v>
+        <v>1003031</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C80">
         <v>1003</v>
@@ -3285,7 +3293,7 @@
         <v>100</v>
       </c>
       <c r="E80">
-        <v>341026</v>
+        <v>341024</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3295,84 +3303,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>1003034</v>
+        <v>1003032</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C81">
         <v>1003</v>
       </c>
       <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>341025</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>1003033</v>
+      </c>
+      <c r="B82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82">
+        <v>1003</v>
+      </c>
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82">
+        <v>341026</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>1003034</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83">
+        <v>1003</v>
+      </c>
+      <c r="D83">
         <v>500</v>
       </c>
-      <c r="E81">
+      <c r="E83">
         <v>322002</v>
       </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="5">
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84" s="5">
         <v>1004001</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B84" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C82" s="5">
-        <v>1004</v>
-      </c>
-      <c r="D82" s="5">
-        <v>70</v>
-      </c>
-      <c r="E82" s="5">
-        <v>341002</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1</v>
-      </c>
-      <c r="G82" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
-        <v>1004002</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="5">
-        <v>1004</v>
-      </c>
-      <c r="D83" s="5">
-        <v>70</v>
-      </c>
-      <c r="E83" s="5">
-        <v>341003</v>
-      </c>
-      <c r="F83" s="5">
-        <v>1</v>
-      </c>
-      <c r="G83" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="5">
-        <v>1004003</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C84" s="5">
         <v>1004</v>
@@ -3381,7 +3389,7 @@
         <v>70</v>
       </c>
       <c r="E84" s="5">
-        <v>341004</v>
+        <v>341002</v>
       </c>
       <c r="F84" s="5">
         <v>1</v>
@@ -3391,12 +3399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
-        <v>1004004</v>
+        <v>1004002</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C85" s="5">
         <v>1004</v>
@@ -3405,7 +3413,7 @@
         <v>70</v>
       </c>
       <c r="E85" s="5">
-        <v>341005</v>
+        <v>341003</v>
       </c>
       <c r="F85" s="5">
         <v>1</v>
@@ -3415,12 +3423,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
-        <v>1004005</v>
+        <v>1004003</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C86" s="5">
         <v>1004</v>
@@ -3429,7 +3437,7 @@
         <v>70</v>
       </c>
       <c r="E86" s="5">
-        <v>341006</v>
+        <v>341004</v>
       </c>
       <c r="F86" s="5">
         <v>1</v>
@@ -3439,12 +3447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
-        <v>1004006</v>
+        <v>1004004</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C87" s="5">
         <v>1004</v>
@@ -3453,7 +3461,7 @@
         <v>70</v>
       </c>
       <c r="E87" s="5">
-        <v>341007</v>
+        <v>341005</v>
       </c>
       <c r="F87" s="5">
         <v>1</v>
@@ -3463,12 +3471,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
-        <v>1004007</v>
+        <v>1004005</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C88" s="5">
         <v>1004</v>
@@ -3477,7 +3485,7 @@
         <v>70</v>
       </c>
       <c r="E88" s="5">
-        <v>341008</v>
+        <v>341006</v>
       </c>
       <c r="F88" s="5">
         <v>1</v>
@@ -3487,12 +3495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
-        <v>1004008</v>
+        <v>1004006</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C89" s="5">
         <v>1004</v>
@@ -3501,7 +3509,7 @@
         <v>70</v>
       </c>
       <c r="E89" s="5">
-        <v>341009</v>
+        <v>341007</v>
       </c>
       <c r="F89" s="5">
         <v>1</v>
@@ -3511,12 +3519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
-        <v>1004009</v>
+        <v>1004007</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C90" s="5">
         <v>1004</v>
@@ -3525,7 +3533,7 @@
         <v>70</v>
       </c>
       <c r="E90" s="5">
-        <v>341010</v>
+        <v>341008</v>
       </c>
       <c r="F90" s="5">
         <v>1</v>
@@ -3535,12 +3543,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
-        <v>1004010</v>
+        <v>1004008</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C91" s="5">
         <v>1004</v>
@@ -3549,7 +3557,7 @@
         <v>70</v>
       </c>
       <c r="E91" s="5">
-        <v>341011</v>
+        <v>341009</v>
       </c>
       <c r="F91" s="5">
         <v>1</v>
@@ -3559,12 +3567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
-        <v>1004011</v>
+        <v>1004009</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C92" s="5">
         <v>1004</v>
@@ -3573,7 +3581,7 @@
         <v>70</v>
       </c>
       <c r="E92" s="5">
-        <v>341012</v>
+        <v>341010</v>
       </c>
       <c r="F92" s="5">
         <v>1</v>
@@ -3583,12 +3591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
-        <v>1004012</v>
+        <v>1004010</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C93" s="5">
         <v>1004</v>
@@ -3597,7 +3605,7 @@
         <v>70</v>
       </c>
       <c r="E93" s="5">
-        <v>341013</v>
+        <v>341011</v>
       </c>
       <c r="F93" s="5">
         <v>1</v>
@@ -3607,12 +3615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
-        <v>1004013</v>
+        <v>1004011</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C94" s="5">
         <v>1004</v>
@@ -3621,7 +3629,7 @@
         <v>70</v>
       </c>
       <c r="E94" s="5">
-        <v>341014</v>
+        <v>341012</v>
       </c>
       <c r="F94" s="5">
         <v>1</v>
@@ -3631,12 +3639,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
-        <v>1004014</v>
+        <v>1004012</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C95" s="5">
         <v>1004</v>
@@ -3645,7 +3653,7 @@
         <v>70</v>
       </c>
       <c r="E95" s="5">
-        <v>341015</v>
+        <v>341013</v>
       </c>
       <c r="F95" s="5">
         <v>1</v>
@@ -3655,12 +3663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
-        <v>1004015</v>
+        <v>1004013</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C96" s="5">
         <v>1004</v>
@@ -3669,7 +3677,7 @@
         <v>70</v>
       </c>
       <c r="E96" s="5">
-        <v>341016</v>
+        <v>341014</v>
       </c>
       <c r="F96" s="5">
         <v>1</v>
@@ -3679,12 +3687,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
-        <v>1004016</v>
+        <v>1004014</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C97" s="5">
         <v>1004</v>
@@ -3693,7 +3701,7 @@
         <v>70</v>
       </c>
       <c r="E97" s="5">
-        <v>341017</v>
+        <v>341015</v>
       </c>
       <c r="F97" s="5">
         <v>1</v>
@@ -3703,60 +3711,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
-        <v>1004017</v>
+        <v>1004015</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C98" s="5">
         <v>1004</v>
       </c>
       <c r="D98" s="5">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E98" s="5">
-        <v>341018</v>
+        <v>341016</v>
       </c>
       <c r="F98" s="5">
         <v>1</v>
       </c>
-      <c r="G98" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G98" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
-        <v>1004018</v>
+        <v>1004016</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C99" s="5">
         <v>1004</v>
       </c>
       <c r="D99" s="5">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E99" s="5">
-        <v>341019</v>
+        <v>341017</v>
       </c>
       <c r="F99" s="5">
         <v>1</v>
       </c>
-      <c r="G99" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G99" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
-        <v>1004019</v>
+        <v>1004017</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C100" s="5">
         <v>1004</v>
@@ -3765,7 +3773,7 @@
         <v>20</v>
       </c>
       <c r="E100" s="5">
-        <v>341020</v>
+        <v>341018</v>
       </c>
       <c r="F100" s="5">
         <v>1</v>
@@ -3775,12 +3783,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
-        <v>1004020</v>
+        <v>1004018</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C101" s="5">
         <v>1004</v>
@@ -3789,7 +3797,7 @@
         <v>20</v>
       </c>
       <c r="E101" s="5">
-        <v>341021</v>
+        <v>341019</v>
       </c>
       <c r="F101" s="5">
         <v>1</v>
@@ -3799,12 +3807,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
-        <v>1004021</v>
+        <v>1004019</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C102" s="5">
         <v>1004</v>
@@ -3813,7 +3821,7 @@
         <v>20</v>
       </c>
       <c r="E102" s="5">
-        <v>341022</v>
+        <v>341020</v>
       </c>
       <c r="F102" s="5">
         <v>1</v>
@@ -3823,12 +3831,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
-        <v>1004022</v>
+        <v>1004020</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C103" s="5">
         <v>1004</v>
@@ -3837,7 +3845,7 @@
         <v>20</v>
       </c>
       <c r="E103" s="5">
-        <v>341023</v>
+        <v>341021</v>
       </c>
       <c r="F103" s="5">
         <v>1</v>
@@ -3847,12 +3855,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
-        <v>1004023</v>
+        <v>1004021</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C104" s="5">
         <v>1004</v>
@@ -3861,7 +3869,7 @@
         <v>20</v>
       </c>
       <c r="E104" s="5">
-        <v>341024</v>
+        <v>341022</v>
       </c>
       <c r="F104" s="5">
         <v>1</v>
@@ -3871,12 +3879,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
-        <v>1004024</v>
+        <v>1004022</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C105" s="5">
         <v>1004</v>
@@ -3885,7 +3893,7 @@
         <v>20</v>
       </c>
       <c r="E105" s="5">
-        <v>341025</v>
+        <v>341023</v>
       </c>
       <c r="F105" s="5">
         <v>1</v>
@@ -3895,12 +3903,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
-        <v>1004025</v>
+        <v>1004023</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C106" s="5">
         <v>1004</v>
@@ -3909,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="5">
-        <v>341026</v>
+        <v>341024</v>
       </c>
       <c r="F106" s="5">
         <v>1</v>
@@ -3919,12 +3927,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
-        <v>1004026</v>
+        <v>1004024</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C107" s="5">
         <v>1004</v>
@@ -3933,7 +3941,7 @@
         <v>20</v>
       </c>
       <c r="E107" s="5">
-        <v>341027</v>
+        <v>341025</v>
       </c>
       <c r="F107" s="5">
         <v>1</v>
@@ -3943,12 +3951,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
-        <v>1004027</v>
+        <v>1004025</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C108" s="5">
         <v>1004</v>
@@ -3957,7 +3965,7 @@
         <v>20</v>
       </c>
       <c r="E108" s="5">
-        <v>341028</v>
+        <v>341026</v>
       </c>
       <c r="F108" s="5">
         <v>1</v>
@@ -3967,12 +3975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
-        <v>1004028</v>
+        <v>1004026</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C109" s="5">
         <v>1004</v>
@@ -3981,12 +3989,60 @@
         <v>20</v>
       </c>
       <c r="E109" s="5">
+        <v>341027</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1</v>
+      </c>
+      <c r="G109" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A110" s="5">
+        <v>1004027</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D110" s="5">
+        <v>20</v>
+      </c>
+      <c r="E110" s="5">
+        <v>341028</v>
+      </c>
+      <c r="F110" s="5">
+        <v>1</v>
+      </c>
+      <c r="G110" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A111" s="5">
+        <v>1004028</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D111" s="5">
+        <v>20</v>
+      </c>
+      <c r="E111" s="5">
         <v>341029</v>
       </c>
-      <c r="F109" s="5">
-        <v>1</v>
-      </c>
-      <c r="G109" s="10" t="b">
+      <c r="F111" s="5">
+        <v>1</v>
+      </c>
+      <c r="G111" s="10" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
@@ -4003,17 +4059,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC866BF9-E829-4339-BA0A-DDA95ECAF929}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4021,28 +4077,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -4053,18 +4109,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4226,14 +4282,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4245,6 +4293,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Desktop\CBT 밸런싱\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JMTJ\new\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD2D185-F2EA-44DD-B1E7-0BE81DC5B0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C73B8-CBF7-4E73-8F98-A00BC7CDBBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="13140" windowHeight="11460" firstSheet="1" activeTab="2" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaGroup" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +433,14 @@
   </si>
   <si>
     <t>프랑켄냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마멀레이드 스킨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,16 +952,16 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.69921875" customWidth="1"/>
+    <col min="4" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -985,7 +993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>100011</v>
       </c>
@@ -1019,7 +1027,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>100012</v>
       </c>
@@ -1053,7 +1061,7 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>100013</v>
       </c>
@@ -1086,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>100014</v>
       </c>
@@ -1119,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1130,7 +1138,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1141,7 +1149,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1152,7 +1160,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1163,7 +1171,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1174,7 +1182,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1185,7 +1193,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1196,7 +1204,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1207,7 +1215,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
@@ -1217,7 +1225,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1228,7 +1236,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1239,7 +1247,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1250,7 +1258,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1261,7 +1269,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1272,7 +1280,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1283,7 +1291,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1294,7 +1302,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1305,7 +1313,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1316,7 +1324,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1327,7 +1335,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1338,7 +1346,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1349,7 +1357,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1370,21 +1378,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" customWidth="1"/>
-    <col min="2" max="2" width="26.69921875" customWidth="1"/>
-    <col min="3" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="24" customWidth="1"/>
+    <col min="6" max="7" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001001</v>
       </c>
@@ -1431,12 +1439,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>1001</v>
@@ -1445,70 +1453,70 @@
         <v>70</v>
       </c>
       <c r="E3">
-        <v>201002</v>
+        <v>100001</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G3" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001003</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>1001</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>201003</v>
+        <v>100001</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1001004</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>1001</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>201004</v>
+        <v>100001</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+      <c r="G5" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1001005</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1001</v>
@@ -1517,7 +1525,7 @@
         <v>70</v>
       </c>
       <c r="E6">
-        <v>201005</v>
+        <v>201002</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1527,12 +1535,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1001006</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>1001</v>
@@ -1541,55 +1549,55 @@
         <v>70</v>
       </c>
       <c r="E7">
-        <v>201006</v>
+        <v>201003</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G7" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1001007</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1001</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E8">
-        <v>201007</v>
+        <v>201004</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="7" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1001008</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>1001</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>201008</v>
+        <v>201005</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1599,21 +1607,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1001009</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1001</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E10">
-        <v>201009</v>
+        <v>201006</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1623,12 +1631,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1001010</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>1001</v>
@@ -1637,7 +1645,7 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>201010</v>
+        <v>201007</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1647,12 +1655,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1001011</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>1001</v>
@@ -1661,22 +1669,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>201011</v>
+        <v>201008</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="7" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G12" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1001012</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>1001</v>
@@ -1685,7 +1693,7 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>201012</v>
+        <v>201009</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1695,12 +1703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1001013</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>1001</v>
@@ -1709,22 +1717,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>201013</v>
+        <v>201010</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="7" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G14" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1001014</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>1001</v>
@@ -1733,7 +1741,7 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>201014</v>
+        <v>201011</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1743,12 +1751,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1001015</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <v>1001</v>
@@ -1757,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>201015</v>
+        <v>201012</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1767,12 +1775,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1001016</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>1001</v>
@@ -1781,22 +1789,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>201016</v>
+        <v>201013</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G17" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1001017</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>1001</v>
@@ -1805,22 +1813,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>201017</v>
+        <v>201014</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G18" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1001018</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>1001</v>
@@ -1829,55 +1837,55 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <v>201018</v>
+        <v>201015</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="7" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G19" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1001019</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>1001</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>322001</v>
+        <v>201016</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="7" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G20" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1001020</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>1001</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>331001</v>
+        <v>201017</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1887,21 +1895,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1001021</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C22">
         <v>1001</v>
       </c>
       <c r="D22">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>331002</v>
+        <v>201018</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1911,12 +1919,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1001022</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>1001</v>
@@ -1925,7 +1933,7 @@
         <v>70</v>
       </c>
       <c r="E23">
-        <v>331003</v>
+        <v>322001</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1935,21 +1943,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1001023</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>1001</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E24">
-        <v>332001</v>
+        <v>331001</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1959,21 +1967,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1001024</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>1001</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E25">
-        <v>332002</v>
+        <v>331002</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1983,21 +1991,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1001025</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>1001</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>332003</v>
+        <v>331003</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2007,132 +2015,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1001026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>1001</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>332001</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1001027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>1001</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>332002</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1001028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>1001</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>332003</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>1002001</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D27" s="5">
-        <v>70</v>
-      </c>
-      <c r="E27" s="5">
-        <v>100001</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2000</v>
-      </c>
-      <c r="G27" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="5">
-        <v>1002002</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D28" s="5">
-        <v>20</v>
-      </c>
-      <c r="E28" s="5">
-        <v>201007</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="5">
-        <v>1002003</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1002</v>
-      </c>
-      <c r="D29" s="5">
-        <v>20</v>
-      </c>
-      <c r="E29" s="5">
-        <v>201008</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="5">
-        <v>1002004</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C30" s="5">
         <v>1002</v>
       </c>
       <c r="D30" s="5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E30" s="5">
-        <v>201009</v>
+        <v>100001</v>
       </c>
       <c r="F30" s="5">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="G30" s="9" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>1002005</v>
+        <v>1002002</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C31" s="5">
         <v>1002</v>
       </c>
       <c r="D31" s="5">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E31" s="5">
-        <v>201010</v>
+        <v>100001</v>
       </c>
       <c r="F31" s="5">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G31" s="9" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>1002006</v>
+        <v>1002003</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="5">
         <v>1002</v>
@@ -2141,46 +2149,46 @@
         <v>20</v>
       </c>
       <c r="E32" s="5">
-        <v>201011</v>
+        <v>100001</v>
       </c>
       <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+        <v>10000</v>
+      </c>
+      <c r="G32" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>1002007</v>
+        <v>1002004</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="5">
         <v>1002</v>
       </c>
       <c r="D33" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" s="5">
-        <v>201012</v>
+        <v>100001</v>
       </c>
       <c r="F33" s="5">
-        <v>1</v>
+        <v>15000</v>
       </c>
       <c r="G33" s="9" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>1002008</v>
+        <v>1002005</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5">
         <v>1002</v>
@@ -2189,22 +2197,22 @@
         <v>20</v>
       </c>
       <c r="E34" s="5">
-        <v>201013</v>
+        <v>201007</v>
       </c>
       <c r="F34" s="5">
         <v>1</v>
       </c>
-      <c r="G34" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G34" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>1002009</v>
+        <v>1002006</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C35" s="5">
         <v>1002</v>
@@ -2213,22 +2221,22 @@
         <v>20</v>
       </c>
       <c r="E35" s="5">
-        <v>201014</v>
+        <v>201008</v>
       </c>
       <c r="F35" s="5">
         <v>1</v>
       </c>
-      <c r="G35" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G35" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>1002010</v>
+        <v>1002007</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C36" s="5">
         <v>1002</v>
@@ -2237,7 +2245,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="5">
-        <v>201015</v>
+        <v>201009</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
@@ -2247,12 +2255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>1002011</v>
+        <v>1002008</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C37" s="5">
         <v>1002</v>
@@ -2261,7 +2269,7 @@
         <v>20</v>
       </c>
       <c r="E37" s="5">
-        <v>201016</v>
+        <v>201010</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -2271,12 +2279,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>1002012</v>
+        <v>1002009</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C38" s="5">
         <v>1002</v>
@@ -2285,22 +2293,22 @@
         <v>20</v>
       </c>
       <c r="E38" s="5">
-        <v>201017</v>
+        <v>201011</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
       </c>
-      <c r="G38" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G38" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>1002013</v>
+        <v>1002010</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C39" s="5">
         <v>1002</v>
@@ -2309,55 +2317,55 @@
         <v>20</v>
       </c>
       <c r="E39" s="5">
-        <v>201018</v>
+        <v>201012</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
       </c>
-      <c r="G39" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G39" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>1002014</v>
+        <v>1002011</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C40" s="5">
         <v>1002</v>
       </c>
       <c r="D40" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E40" s="5">
-        <v>313001</v>
+        <v>201013</v>
       </c>
       <c r="F40" s="5">
         <v>1</v>
       </c>
-      <c r="G40" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G40" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>1002015</v>
+        <v>1002012</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C41" s="5">
         <v>1002</v>
       </c>
       <c r="D41" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E41" s="5">
-        <v>322002</v>
+        <v>201014</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -2367,36 +2375,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <v>1002016</v>
+        <v>1002013</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C42" s="5">
         <v>1002</v>
       </c>
       <c r="D42" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E42" s="5">
-        <v>333001</v>
+        <v>201015</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
       </c>
-      <c r="G42" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G42" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>1002017</v>
+        <v>1002014</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C43" s="5">
         <v>1002</v>
@@ -2405,22 +2413,22 @@
         <v>20</v>
       </c>
       <c r="E43" s="5">
-        <v>332001</v>
+        <v>201016</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G43" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>1002018</v>
+        <v>1002015</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C44" s="5">
         <v>1002</v>
@@ -2429,22 +2437,22 @@
         <v>20</v>
       </c>
       <c r="E44" s="5">
-        <v>332002</v>
+        <v>201017</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
       </c>
-      <c r="G44" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G44" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>1002019</v>
+        <v>1002016</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C45" s="5">
         <v>1002</v>
@@ -2453,55 +2461,55 @@
         <v>20</v>
       </c>
       <c r="E45" s="5">
-        <v>332003</v>
+        <v>201018</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
       </c>
-      <c r="G45" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G45" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>1002020</v>
+        <v>1002017</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C46" s="5">
         <v>1002</v>
       </c>
       <c r="D46" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E46" s="5">
-        <v>341028</v>
+        <v>313001</v>
       </c>
       <c r="F46" s="5">
         <v>1</v>
       </c>
-      <c r="G46" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G46" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>1002021</v>
+        <v>1002018</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C47" s="5">
         <v>1002</v>
       </c>
       <c r="D47" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E47" s="5">
-        <v>341029</v>
+        <v>322002</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
@@ -2511,12 +2519,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
-        <v>1002022</v>
+        <v>1002019</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C48" s="5">
         <v>1002</v>
@@ -2525,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="5">
-        <v>201021</v>
+        <v>333001</v>
       </c>
       <c r="F48" s="5">
         <v>1</v>
@@ -2535,21 +2543,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
-        <v>1002023</v>
+        <v>1002020</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C49" s="5">
         <v>1002</v>
       </c>
       <c r="D49" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E49" s="5">
-        <v>201024</v>
+        <v>332001</v>
       </c>
       <c r="F49" s="5">
         <v>1</v>
@@ -2559,156 +2567,156 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>1002021</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D50" s="5">
+        <v>20</v>
+      </c>
+      <c r="E50" s="5">
+        <v>332002</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>1002022</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D51" s="5">
+        <v>20</v>
+      </c>
+      <c r="E51" s="5">
+        <v>332003</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>1002023</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D52" s="5">
+        <v>20</v>
+      </c>
+      <c r="E52" s="5">
+        <v>341028</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>1002024</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D53" s="5">
+        <v>20</v>
+      </c>
+      <c r="E53" s="5">
+        <v>341029</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>1002025</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D54" s="5">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5">
+        <v>201021</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>1002026</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D55" s="5">
+        <v>10</v>
+      </c>
+      <c r="E55" s="5">
+        <v>201024</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>1003001</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B56" t="s">
         <v>8</v>
-      </c>
-      <c r="C50">
-        <v>1003</v>
-      </c>
-      <c r="D50">
-        <v>100</v>
-      </c>
-      <c r="E50">
-        <v>201001</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>1003002</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51">
-        <v>1003</v>
-      </c>
-      <c r="D51">
-        <v>100</v>
-      </c>
-      <c r="E51">
-        <v>201002</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>1003003</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>1003</v>
-      </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
-      <c r="E52">
-        <v>201003</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <v>1003004</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>1003</v>
-      </c>
-      <c r="D53">
-        <v>100</v>
-      </c>
-      <c r="E53">
-        <v>201004</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>1003005</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54">
-        <v>1003</v>
-      </c>
-      <c r="D54">
-        <v>100</v>
-      </c>
-      <c r="E54">
-        <v>201005</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55">
-        <v>1003006</v>
-      </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55">
-        <v>1003</v>
-      </c>
-      <c r="D55">
-        <v>100</v>
-      </c>
-      <c r="E55">
-        <v>201006</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <v>1003007</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
       </c>
       <c r="C56">
         <v>1003</v>
@@ -2717,7 +2725,7 @@
         <v>100</v>
       </c>
       <c r="E56">
-        <v>201007</v>
+        <v>201001</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2727,12 +2735,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1003008</v>
+        <v>1003002</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>1003</v>
@@ -2741,7 +2749,7 @@
         <v>100</v>
       </c>
       <c r="E57">
-        <v>201008</v>
+        <v>201002</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2751,12 +2759,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1003009</v>
+        <v>1003003</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>1003</v>
@@ -2765,7 +2773,7 @@
         <v>100</v>
       </c>
       <c r="E58">
-        <v>201009</v>
+        <v>201003</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2775,12 +2783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1003010</v>
+        <v>1003004</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>1003</v>
@@ -2789,7 +2797,7 @@
         <v>100</v>
       </c>
       <c r="E59">
-        <v>201010</v>
+        <v>201004</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2799,12 +2807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1003011</v>
+        <v>1003005</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>1003</v>
@@ -2813,7 +2821,7 @@
         <v>100</v>
       </c>
       <c r="E60">
-        <v>313001</v>
+        <v>201005</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2823,12 +2831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1003012</v>
+        <v>1003006</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C61">
         <v>1003</v>
@@ -2837,7 +2845,7 @@
         <v>100</v>
       </c>
       <c r="E61">
-        <v>322001</v>
+        <v>201006</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2847,12 +2855,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1003013</v>
+        <v>1003007</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C62">
         <v>1003</v>
@@ -2861,7 +2869,7 @@
         <v>100</v>
       </c>
       <c r="E62">
-        <v>333001</v>
+        <v>201007</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2871,12 +2879,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1003014</v>
+        <v>1003008</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C63">
         <v>1003</v>
@@ -2885,7 +2893,7 @@
         <v>100</v>
       </c>
       <c r="E63">
-        <v>332001</v>
+        <v>201008</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2895,12 +2903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1003015</v>
+        <v>1003009</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C64">
         <v>1003</v>
@@ -2909,7 +2917,7 @@
         <v>100</v>
       </c>
       <c r="E64">
-        <v>332002</v>
+        <v>201009</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2919,12 +2927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1003016</v>
+        <v>1003010</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C65">
         <v>1003</v>
@@ -2933,7 +2941,7 @@
         <v>100</v>
       </c>
       <c r="E65">
-        <v>332003</v>
+        <v>201010</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2943,12 +2951,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1003017</v>
+        <v>1003011</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C66">
         <v>1003</v>
@@ -2957,7 +2965,7 @@
         <v>100</v>
       </c>
       <c r="E66">
-        <v>331001</v>
+        <v>313001</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2967,12 +2975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1003018</v>
+        <v>1003012</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>1003</v>
@@ -2981,7 +2989,7 @@
         <v>100</v>
       </c>
       <c r="E67">
-        <v>331002</v>
+        <v>322001</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2991,12 +2999,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1003019</v>
+        <v>1003013</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C68">
         <v>1003</v>
@@ -3005,7 +3013,7 @@
         <v>100</v>
       </c>
       <c r="E68">
-        <v>331003</v>
+        <v>333001</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3015,12 +3023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1003020</v>
+        <v>1003014</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C69">
         <v>1003</v>
@@ -3029,7 +3037,7 @@
         <v>100</v>
       </c>
       <c r="E69">
-        <v>341005</v>
+        <v>332001</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3039,12 +3047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1003021</v>
+        <v>1003015</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C70">
         <v>1003</v>
@@ -3053,7 +3061,7 @@
         <v>100</v>
       </c>
       <c r="E70">
-        <v>341014</v>
+        <v>332002</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3063,12 +3071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1003022</v>
+        <v>1003016</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C71">
         <v>1003</v>
@@ -3077,7 +3085,7 @@
         <v>100</v>
       </c>
       <c r="E71">
-        <v>341009</v>
+        <v>332003</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3087,12 +3095,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1003023</v>
+        <v>1003017</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C72">
         <v>1003</v>
@@ -3101,7 +3109,7 @@
         <v>100</v>
       </c>
       <c r="E72">
-        <v>341012</v>
+        <v>331001</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3111,12 +3119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1003024</v>
+        <v>1003018</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C73">
         <v>1003</v>
@@ -3125,7 +3133,7 @@
         <v>100</v>
       </c>
       <c r="E73">
-        <v>341017</v>
+        <v>331002</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3135,12 +3143,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1003025</v>
+        <v>1003019</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C74">
         <v>1003</v>
@@ -3149,7 +3157,7 @@
         <v>100</v>
       </c>
       <c r="E74">
-        <v>341018</v>
+        <v>331003</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3159,12 +3167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1003026</v>
+        <v>1003020</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C75">
         <v>1003</v>
@@ -3173,7 +3181,7 @@
         <v>100</v>
       </c>
       <c r="E75">
-        <v>341019</v>
+        <v>341005</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3183,12 +3191,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1003027</v>
+        <v>1003021</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C76">
         <v>1003</v>
@@ -3197,7 +3205,7 @@
         <v>100</v>
       </c>
       <c r="E76">
-        <v>341020</v>
+        <v>341014</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3207,12 +3215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1003028</v>
+        <v>1003022</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C77">
         <v>1003</v>
@@ -3221,7 +3229,7 @@
         <v>100</v>
       </c>
       <c r="E77">
-        <v>341021</v>
+        <v>341009</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3231,12 +3239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1003029</v>
+        <v>1003023</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C78">
         <v>1003</v>
@@ -3245,7 +3253,7 @@
         <v>100</v>
       </c>
       <c r="E78">
-        <v>341022</v>
+        <v>341012</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3255,12 +3263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1003030</v>
+        <v>1003024</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C79">
         <v>1003</v>
@@ -3269,7 +3277,7 @@
         <v>100</v>
       </c>
       <c r="E79">
-        <v>341023</v>
+        <v>341017</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3279,12 +3287,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1003031</v>
+        <v>1003025</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C80">
         <v>1003</v>
@@ -3293,7 +3301,7 @@
         <v>100</v>
       </c>
       <c r="E80">
-        <v>341024</v>
+        <v>341018</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3303,12 +3311,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1003032</v>
+        <v>1003026</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C81">
         <v>1003</v>
@@ -3317,7 +3325,7 @@
         <v>100</v>
       </c>
       <c r="E81">
-        <v>341025</v>
+        <v>341019</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3327,12 +3335,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1003033</v>
+        <v>1003027</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C82">
         <v>1003</v>
@@ -3341,7 +3349,7 @@
         <v>100</v>
       </c>
       <c r="E82">
-        <v>341026</v>
+        <v>341020</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3351,180 +3359,180 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1003034</v>
+        <v>1003028</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C83">
         <v>1003</v>
       </c>
       <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83">
+        <v>341021</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1003029</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84">
+        <v>1003</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84">
+        <v>341022</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1003030</v>
+      </c>
+      <c r="B85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85">
+        <v>1003</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85">
+        <v>341023</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1003031</v>
+      </c>
+      <c r="B86" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86">
+        <v>1003</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86">
+        <v>341024</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1003032</v>
+      </c>
+      <c r="B87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87">
+        <v>1003</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87">
+        <v>341025</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1003033</v>
+      </c>
+      <c r="B88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88">
+        <v>1003</v>
+      </c>
+      <c r="D88">
+        <v>100</v>
+      </c>
+      <c r="E88">
+        <v>341026</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1003034</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89">
+        <v>1003</v>
+      </c>
+      <c r="D89">
         <v>500</v>
       </c>
-      <c r="E83">
+      <c r="E89">
         <v>322002</v>
       </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A84" s="5">
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
         <v>1004001</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B90" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C84" s="5">
-        <v>1004</v>
-      </c>
-      <c r="D84" s="5">
-        <v>70</v>
-      </c>
-      <c r="E84" s="5">
-        <v>341002</v>
-      </c>
-      <c r="F84" s="5">
-        <v>1</v>
-      </c>
-      <c r="G84" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A85" s="5">
-        <v>1004002</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C85" s="5">
-        <v>1004</v>
-      </c>
-      <c r="D85" s="5">
-        <v>70</v>
-      </c>
-      <c r="E85" s="5">
-        <v>341003</v>
-      </c>
-      <c r="F85" s="5">
-        <v>1</v>
-      </c>
-      <c r="G85" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A86" s="5">
-        <v>1004003</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="5">
-        <v>1004</v>
-      </c>
-      <c r="D86" s="5">
-        <v>70</v>
-      </c>
-      <c r="E86" s="5">
-        <v>341004</v>
-      </c>
-      <c r="F86" s="5">
-        <v>1</v>
-      </c>
-      <c r="G86" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A87" s="5">
-        <v>1004004</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C87" s="5">
-        <v>1004</v>
-      </c>
-      <c r="D87" s="5">
-        <v>70</v>
-      </c>
-      <c r="E87" s="5">
-        <v>341005</v>
-      </c>
-      <c r="F87" s="5">
-        <v>1</v>
-      </c>
-      <c r="G87" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A88" s="5">
-        <v>1004005</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="5">
-        <v>1004</v>
-      </c>
-      <c r="D88" s="5">
-        <v>70</v>
-      </c>
-      <c r="E88" s="5">
-        <v>341006</v>
-      </c>
-      <c r="F88" s="5">
-        <v>1</v>
-      </c>
-      <c r="G88" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A89" s="5">
-        <v>1004006</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C89" s="5">
-        <v>1004</v>
-      </c>
-      <c r="D89" s="5">
-        <v>70</v>
-      </c>
-      <c r="E89" s="5">
-        <v>341007</v>
-      </c>
-      <c r="F89" s="5">
-        <v>1</v>
-      </c>
-      <c r="G89" s="9" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A90" s="5">
-        <v>1004007</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C90" s="5">
         <v>1004</v>
@@ -3533,7 +3541,7 @@
         <v>70</v>
       </c>
       <c r="E90" s="5">
-        <v>341008</v>
+        <v>341002</v>
       </c>
       <c r="F90" s="5">
         <v>1</v>
@@ -3543,12 +3551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
-        <v>1004008</v>
+        <v>1004002</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C91" s="5">
         <v>1004</v>
@@ -3557,7 +3565,7 @@
         <v>70</v>
       </c>
       <c r="E91" s="5">
-        <v>341009</v>
+        <v>341003</v>
       </c>
       <c r="F91" s="5">
         <v>1</v>
@@ -3567,12 +3575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
-        <v>1004009</v>
+        <v>1004003</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C92" s="5">
         <v>1004</v>
@@ -3581,7 +3589,7 @@
         <v>70</v>
       </c>
       <c r="E92" s="5">
-        <v>341010</v>
+        <v>341004</v>
       </c>
       <c r="F92" s="5">
         <v>1</v>
@@ -3591,12 +3599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
-        <v>1004010</v>
+        <v>1004004</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C93" s="5">
         <v>1004</v>
@@ -3605,7 +3613,7 @@
         <v>70</v>
       </c>
       <c r="E93" s="5">
-        <v>341011</v>
+        <v>341005</v>
       </c>
       <c r="F93" s="5">
         <v>1</v>
@@ -3615,12 +3623,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
-        <v>1004011</v>
+        <v>1004005</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C94" s="5">
         <v>1004</v>
@@ -3629,7 +3637,7 @@
         <v>70</v>
       </c>
       <c r="E94" s="5">
-        <v>341012</v>
+        <v>341006</v>
       </c>
       <c r="F94" s="5">
         <v>1</v>
@@ -3639,12 +3647,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
-        <v>1004012</v>
+        <v>1004006</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C95" s="5">
         <v>1004</v>
@@ -3653,7 +3661,7 @@
         <v>70</v>
       </c>
       <c r="E95" s="5">
-        <v>341013</v>
+        <v>341007</v>
       </c>
       <c r="F95" s="5">
         <v>1</v>
@@ -3663,12 +3671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
-        <v>1004013</v>
+        <v>1004007</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C96" s="5">
         <v>1004</v>
@@ -3677,7 +3685,7 @@
         <v>70</v>
       </c>
       <c r="E96" s="5">
-        <v>341014</v>
+        <v>341008</v>
       </c>
       <c r="F96" s="5">
         <v>1</v>
@@ -3687,12 +3695,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
-        <v>1004014</v>
+        <v>1004008</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C97" s="5">
         <v>1004</v>
@@ -3701,7 +3709,7 @@
         <v>70</v>
       </c>
       <c r="E97" s="5">
-        <v>341015</v>
+        <v>341009</v>
       </c>
       <c r="F97" s="5">
         <v>1</v>
@@ -3711,12 +3719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
-        <v>1004015</v>
+        <v>1004009</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C98" s="5">
         <v>1004</v>
@@ -3725,7 +3733,7 @@
         <v>70</v>
       </c>
       <c r="E98" s="5">
-        <v>341016</v>
+        <v>341010</v>
       </c>
       <c r="F98" s="5">
         <v>1</v>
@@ -3735,12 +3743,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
-        <v>1004016</v>
+        <v>1004010</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C99" s="5">
         <v>1004</v>
@@ -3749,7 +3757,7 @@
         <v>70</v>
       </c>
       <c r="E99" s="5">
-        <v>341017</v>
+        <v>341011</v>
       </c>
       <c r="F99" s="5">
         <v>1</v>
@@ -3759,156 +3767,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
-        <v>1004017</v>
+        <v>1004011</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C100" s="5">
         <v>1004</v>
       </c>
       <c r="D100" s="5">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E100" s="5">
-        <v>341018</v>
+        <v>341012</v>
       </c>
       <c r="F100" s="5">
         <v>1</v>
       </c>
-      <c r="G100" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G100" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
-        <v>1004018</v>
+        <v>1004012</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C101" s="5">
         <v>1004</v>
       </c>
       <c r="D101" s="5">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E101" s="5">
-        <v>341019</v>
+        <v>341013</v>
       </c>
       <c r="F101" s="5">
         <v>1</v>
       </c>
-      <c r="G101" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G101" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
-        <v>1004019</v>
+        <v>1004013</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C102" s="5">
         <v>1004</v>
       </c>
       <c r="D102" s="5">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E102" s="5">
-        <v>341020</v>
+        <v>341014</v>
       </c>
       <c r="F102" s="5">
         <v>1</v>
       </c>
-      <c r="G102" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G102" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
-        <v>1004020</v>
+        <v>1004014</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C103" s="5">
         <v>1004</v>
       </c>
       <c r="D103" s="5">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E103" s="5">
-        <v>341021</v>
+        <v>341015</v>
       </c>
       <c r="F103" s="5">
         <v>1</v>
       </c>
-      <c r="G103" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G103" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
-        <v>1004021</v>
+        <v>1004015</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C104" s="5">
         <v>1004</v>
       </c>
       <c r="D104" s="5">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E104" s="5">
-        <v>341022</v>
+        <v>341016</v>
       </c>
       <c r="F104" s="5">
         <v>1</v>
       </c>
-      <c r="G104" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G104" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
-        <v>1004022</v>
+        <v>1004016</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C105" s="5">
         <v>1004</v>
       </c>
       <c r="D105" s="5">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E105" s="5">
-        <v>341023</v>
+        <v>341017</v>
       </c>
       <c r="F105" s="5">
         <v>1</v>
       </c>
-      <c r="G105" s="10" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G105" s="9" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
-        <v>1004023</v>
+        <v>1004017</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C106" s="5">
         <v>1004</v>
@@ -3917,7 +3925,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="5">
-        <v>341024</v>
+        <v>341018</v>
       </c>
       <c r="F106" s="5">
         <v>1</v>
@@ -3927,12 +3935,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
-        <v>1004024</v>
+        <v>1004018</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C107" s="5">
         <v>1004</v>
@@ -3941,7 +3949,7 @@
         <v>20</v>
       </c>
       <c r="E107" s="5">
-        <v>341025</v>
+        <v>341019</v>
       </c>
       <c r="F107" s="5">
         <v>1</v>
@@ -3951,12 +3959,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
-        <v>1004025</v>
+        <v>1004019</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C108" s="5">
         <v>1004</v>
@@ -3965,7 +3973,7 @@
         <v>20</v>
       </c>
       <c r="E108" s="5">
-        <v>341026</v>
+        <v>341020</v>
       </c>
       <c r="F108" s="5">
         <v>1</v>
@@ -3975,12 +3983,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
-        <v>1004026</v>
+        <v>1004020</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C109" s="5">
         <v>1004</v>
@@ -3989,7 +3997,7 @@
         <v>20</v>
       </c>
       <c r="E109" s="5">
-        <v>341027</v>
+        <v>341021</v>
       </c>
       <c r="F109" s="5">
         <v>1</v>
@@ -3999,12 +4007,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
-        <v>1004027</v>
+        <v>1004021</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C110" s="5">
         <v>1004</v>
@@ -4013,7 +4021,7 @@
         <v>20</v>
       </c>
       <c r="E110" s="5">
-        <v>341028</v>
+        <v>341022</v>
       </c>
       <c r="F110" s="5">
         <v>1</v>
@@ -4023,12 +4031,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
-        <v>1004028</v>
+        <v>1004022</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C111" s="5">
         <v>1004</v>
@@ -4037,12 +4045,156 @@
         <v>20</v>
       </c>
       <c r="E111" s="5">
+        <v>341023</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1</v>
+      </c>
+      <c r="G111" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>1004023</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D112" s="5">
+        <v>20</v>
+      </c>
+      <c r="E112" s="5">
+        <v>341024</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1</v>
+      </c>
+      <c r="G112" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>1004024</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D113" s="5">
+        <v>20</v>
+      </c>
+      <c r="E113" s="5">
+        <v>341025</v>
+      </c>
+      <c r="F113" s="5">
+        <v>1</v>
+      </c>
+      <c r="G113" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>1004025</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D114" s="5">
+        <v>20</v>
+      </c>
+      <c r="E114" s="5">
+        <v>341026</v>
+      </c>
+      <c r="F114" s="5">
+        <v>1</v>
+      </c>
+      <c r="G114" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>1004026</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D115" s="5">
+        <v>20</v>
+      </c>
+      <c r="E115" s="5">
+        <v>341027</v>
+      </c>
+      <c r="F115" s="5">
+        <v>1</v>
+      </c>
+      <c r="G115" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>1004027</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D116" s="5">
+        <v>20</v>
+      </c>
+      <c r="E116" s="5">
+        <v>341028</v>
+      </c>
+      <c r="F116" s="5">
+        <v>1</v>
+      </c>
+      <c r="G116" s="10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>1004028</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D117" s="5">
+        <v>20</v>
+      </c>
+      <c r="E117" s="5">
         <v>341029</v>
       </c>
-      <c r="F111" s="5">
-        <v>1</v>
-      </c>
-      <c r="G111" s="10" t="b">
+      <c r="F117" s="5">
+        <v>1</v>
+      </c>
+      <c r="G117" s="10" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
@@ -4059,17 +4211,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC866BF9-E829-4339-BA0A-DDA95ECAF929}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4077,7 +4229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4085,7 +4237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4093,7 +4245,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>

--- a/Server/Server/GameData/Gacha.xlsx
+++ b/Server/Server/GameData/Gacha.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JMTJ\new\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C73B8-CBF7-4E73-8F98-A00BC7CDBBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B07756-2739-474B-8C4D-F0A6ED0FA9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA63B6B-56B9-4D2F-ADF1-A0D874D69E23}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1453,7 +1453,7 @@
         <v>70</v>
       </c>
       <c r="E3">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -1477,7 +1477,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="F4">
         <v>200</v>
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="F5">
         <v>500</v>
@@ -4212,7 +4212,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4234,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4242,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
